--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,167 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>54200</v>
+        <v>33300</v>
       </c>
       <c r="E8" s="3">
-        <v>26000</v>
+        <v>33300</v>
       </c>
       <c r="F8" s="3">
-        <v>55800</v>
+        <v>52800</v>
       </c>
       <c r="G8" s="3">
-        <v>27500</v>
+        <v>25300</v>
       </c>
       <c r="H8" s="3">
-        <v>49900</v>
+        <v>54400</v>
       </c>
       <c r="I8" s="3">
+        <v>26800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K8" s="3">
         <v>23900</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19100</v>
+        <v>10600</v>
       </c>
       <c r="E9" s="3">
-        <v>8600</v>
+        <v>10300</v>
       </c>
       <c r="F9" s="3">
-        <v>18100</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="3">
-        <v>10000</v>
+        <v>8400</v>
       </c>
       <c r="H9" s="3">
-        <v>16600</v>
+        <v>8000</v>
       </c>
       <c r="I9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K9" s="3">
         <v>9000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>35100</v>
+        <v>22700</v>
       </c>
       <c r="E10" s="3">
-        <v>17400</v>
+        <v>23000</v>
       </c>
       <c r="F10" s="3">
-        <v>37700</v>
+        <v>45800</v>
       </c>
       <c r="G10" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="H10" s="3">
-        <v>33300</v>
+        <v>46300</v>
       </c>
       <c r="I10" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K10" s="3">
         <v>15000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +837,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +868,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +903,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>-32500</v>
+        <v>9300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>7300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-800</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
+        <v>41700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>32200</v>
       </c>
       <c r="F17" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
         <v>-1300</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>54900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-8400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1000</v>
       </c>
       <c r="F18" s="3">
-        <v>57100</v>
+        <v>53600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>49900</v>
+        <v>55700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>48700</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1074,45 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16200</v>
       </c>
       <c r="F20" s="3">
-        <v>-100200</v>
+        <v>-7900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>-40900</v>
+        <v>-60100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>-37500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1049,113 +1122,137 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-41600</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>10500</v>
+        <v>-2800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>12600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>14000</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>35100</v>
+        <v>25700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>4200</v>
+        <v>72000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>6500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>20500</v>
+        <v>-8800</v>
       </c>
       <c r="E23" s="3">
-        <v>4000</v>
+        <v>17300</v>
       </c>
       <c r="F23" s="3">
-        <v>-78300</v>
+        <v>20000</v>
       </c>
       <c r="G23" s="3">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="H23" s="3">
-        <v>4800</v>
+        <v>-76400</v>
       </c>
       <c r="I23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>12300</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
-        <v>-38000</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>2900</v>
+        <v>-37000</v>
       </c>
       <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16600</v>
       </c>
       <c r="F26" s="3">
-        <v>-38900</v>
+        <v>11100</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16200</v>
       </c>
       <c r="F27" s="3">
-        <v>-38900</v>
+        <v>11100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20500</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-16200</v>
       </c>
       <c r="F32" s="3">
-        <v>100200</v>
+        <v>7900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>40900</v>
+        <v>60100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>37500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>16200</v>
       </c>
       <c r="F33" s="3">
-        <v>-38900</v>
+        <v>11100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>16200</v>
       </c>
       <c r="F35" s="3">
-        <v>-38900</v>
+        <v>11100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1704,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>21600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>32600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,19 +1770,25 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15300</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>23200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1620,19 +1805,25 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>33800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1840,14 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,19 +1875,25 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>26800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>29600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1707,19 +1910,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>138100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1736,19 +1945,25 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>98800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>74800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>149500</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1765,19 +1980,25 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>164600</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>24600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>71400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1794,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,19 +2085,25 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9500</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1881,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2155,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>140400</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>146600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>131900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>136600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1939,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2224,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64700</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1994,19 +2255,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>22900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>23700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2023,19 +2290,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59900</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>119000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2052,19 +2325,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>37100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>57400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2081,19 +2360,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>127500</v>
+        <v>25000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>101700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>128800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2110,19 +2395,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8100</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
+        <v>124300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2139,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2535,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182600</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>69900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>140700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>164200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2255,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2725,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-33900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-69200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2865,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-50300</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>76600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-27600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
+        <v>-8200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>16200</v>
       </c>
       <c r="F81" s="3">
-        <v>-38900</v>
+        <v>11100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H81" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3029,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +3060,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3235,14 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3270,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3289,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3320,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3390,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3425,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3580,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3615,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3650,14 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3683,12 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>33300</v>
+        <v>34600</v>
       </c>
       <c r="E8" s="3">
-        <v>33300</v>
+        <v>34600</v>
       </c>
       <c r="F8" s="3">
-        <v>52800</v>
+        <v>54800</v>
       </c>
       <c r="G8" s="3">
-        <v>25300</v>
+        <v>26300</v>
       </c>
       <c r="H8" s="3">
-        <v>54400</v>
+        <v>56400</v>
       </c>
       <c r="I8" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="J8" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="K8" s="3">
         <v>23900</v>
@@ -760,25 +760,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="E9" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F9" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="G9" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="H9" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I9" s="3">
-        <v>9800</v>
+        <v>10100</v>
       </c>
       <c r="J9" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="K9" s="3">
         <v>9000</v>
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="E10" s="3">
-        <v>23000</v>
+        <v>23900</v>
       </c>
       <c r="F10" s="3">
-        <v>45800</v>
+        <v>47500</v>
       </c>
       <c r="G10" s="3">
-        <v>17000</v>
+        <v>17600</v>
       </c>
       <c r="H10" s="3">
-        <v>46300</v>
+        <v>48100</v>
       </c>
       <c r="I10" s="3">
-        <v>17000</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
-        <v>40800</v>
+        <v>42300</v>
       </c>
       <c r="K10" s="3">
         <v>15000</v>
@@ -921,19 +921,19 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>8800</v>
+        <v>9200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -997,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41700</v>
+        <v>43300</v>
       </c>
       <c r="E17" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="F17" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="E18" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F18" s="3">
-        <v>53600</v>
+        <v>55600</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>55700</v>
+        <v>57800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J18" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1085,22 +1085,22 @@
         <v>-400</v>
       </c>
       <c r="E20" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F20" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="3">
-        <v>-60100</v>
+        <v>-62300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="3">
-        <v>-37500</v>
+        <v>-38900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1129,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1158,19 +1158,19 @@
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>25700</v>
+        <v>26700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>72000</v>
+        <v>74700</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1187,25 +1187,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>17300</v>
+        <v>17900</v>
       </c>
       <c r="F23" s="3">
-        <v>20000</v>
+        <v>20700</v>
       </c>
       <c r="G23" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H23" s="3">
-        <v>-76400</v>
+        <v>-79300</v>
       </c>
       <c r="I23" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J23" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K23" s="3">
         <v>800</v>
@@ -1225,22 +1225,22 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="G24" s="3">
         <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>-37000</v>
+        <v>-38400</v>
       </c>
       <c r="I24" s="3">
         <v>800</v>
       </c>
       <c r="J24" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1292,19 +1292,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="E26" s="3">
-        <v>16600</v>
+        <v>17200</v>
       </c>
       <c r="F26" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="3">
-        <v>-38000</v>
+        <v>-39400</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1327,19 +1327,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E27" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F27" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="3">
-        <v>-38000</v>
+        <v>-39400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1505,22 +1505,22 @@
         <v>400</v>
       </c>
       <c r="E32" s="3">
-        <v>-16200</v>
+        <v>-16800</v>
       </c>
       <c r="F32" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>60100</v>
+        <v>62300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="3">
-        <v>37500</v>
+        <v>38900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1537,19 +1537,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E33" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F33" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="3">
-        <v>-38000</v>
+        <v>-39400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1607,19 +1607,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E35" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F35" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>-38000</v>
+        <v>-39400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1712,13 +1712,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="E41" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="F41" s="3">
-        <v>32600</v>
+        <v>33900</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1782,13 +1782,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="E43" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="F43" s="3">
-        <v>23200</v>
+        <v>24000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1817,13 +1817,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="E44" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F44" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1887,13 +1887,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37000</v>
+        <v>38400</v>
       </c>
       <c r="E46" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="F46" s="3">
-        <v>29600</v>
+        <v>30800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1922,13 +1922,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E47" s="3">
         <v>1500</v>
       </c>
       <c r="F47" s="3">
-        <v>138100</v>
+        <v>143300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74800</v>
+        <v>77700</v>
       </c>
       <c r="E48" s="3">
-        <v>74400</v>
+        <v>77200</v>
       </c>
       <c r="F48" s="3">
-        <v>149500</v>
+        <v>155200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1992,13 +1992,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="E49" s="3">
-        <v>23900</v>
+        <v>24800</v>
       </c>
       <c r="F49" s="3">
-        <v>71400</v>
+        <v>74100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -2097,13 +2097,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E52" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="F52" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2167,13 +2167,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146600</v>
+        <v>152100</v>
       </c>
       <c r="E54" s="3">
-        <v>131900</v>
+        <v>136800</v>
       </c>
       <c r="F54" s="3">
-        <v>136600</v>
+        <v>141700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2232,13 +2232,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2267,13 +2267,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22900</v>
+        <v>23800</v>
       </c>
       <c r="E58" s="3">
-        <v>16900</v>
+        <v>17600</v>
       </c>
       <c r="F58" s="3">
-        <v>23700</v>
+        <v>24500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2302,13 +2302,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E59" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F59" s="3">
-        <v>119000</v>
+        <v>123500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2337,13 +2337,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="E60" s="3">
-        <v>30900</v>
+        <v>32100</v>
       </c>
       <c r="F60" s="3">
-        <v>57400</v>
+        <v>59600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2372,13 +2372,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25000</v>
+        <v>25900</v>
       </c>
       <c r="E61" s="3">
-        <v>101700</v>
+        <v>105500</v>
       </c>
       <c r="F61" s="3">
-        <v>128800</v>
+        <v>133700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2410,10 +2410,10 @@
         <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F62" s="3">
-        <v>124300</v>
+        <v>129000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2547,13 +2547,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69900</v>
+        <v>72600</v>
       </c>
       <c r="E66" s="3">
-        <v>140700</v>
+        <v>146000</v>
       </c>
       <c r="F66" s="3">
-        <v>164200</v>
+        <v>170400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2737,13 +2737,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33900</v>
+        <v>-35200</v>
       </c>
       <c r="E72" s="3">
-        <v>-25600</v>
+        <v>-26600</v>
       </c>
       <c r="F72" s="3">
-        <v>-69200</v>
+        <v>-71800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2877,13 +2877,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76600</v>
+        <v>79500</v>
       </c>
       <c r="E76" s="3">
-        <v>-8800</v>
+        <v>-9100</v>
       </c>
       <c r="F76" s="3">
-        <v>-27600</v>
+        <v>-28700</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2987,19 +2987,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E81" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="F81" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H81" s="3">
-        <v>-38000</v>
+        <v>-39400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,206 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>34600</v>
+        <v>42800</v>
       </c>
       <c r="E8" s="3">
-        <v>34600</v>
+        <v>25400</v>
       </c>
       <c r="F8" s="3">
-        <v>54800</v>
+        <v>13800</v>
       </c>
       <c r="G8" s="3">
-        <v>26300</v>
+        <v>36200</v>
       </c>
       <c r="H8" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K8" s="3">
         <v>56400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>27800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>50500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>23900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11000</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F9" s="3">
-        <v>7300</v>
+        <v>8500</v>
       </c>
       <c r="G9" s="3">
-        <v>8700</v>
+        <v>11500</v>
       </c>
       <c r="H9" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K9" s="3">
         <v>8300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>10100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>8200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>9000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>23600</v>
+        <v>27300</v>
       </c>
       <c r="E10" s="3">
-        <v>23900</v>
+        <v>14500</v>
       </c>
       <c r="F10" s="3">
-        <v>47500</v>
+        <v>5300</v>
       </c>
       <c r="G10" s="3">
-        <v>17600</v>
+        <v>24700</v>
       </c>
       <c r="H10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>49800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K10" s="3">
         <v>48100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>17700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>42300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>15000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +878,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +916,17 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +960,61 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>9200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1048,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1069,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>43300</v>
+        <v>46000</v>
       </c>
       <c r="E17" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="F17" s="3">
+        <v>28100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45400</v>
+      </c>
+      <c r="H17" s="3">
+        <v>35000</v>
+      </c>
+      <c r="I17" s="3">
         <v>-800</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
         <v>-1300</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8700</v>
+        <v>-3300</v>
       </c>
       <c r="E18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
-        <v>55600</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>57800</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>50500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,43 +1175,55 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>16800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>-62300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-38900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1128,26 +1239,35 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>13000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1157,102 +1277,129 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>26700</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>74700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>6700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-4100</v>
       </c>
       <c r="E23" s="3">
-        <v>17900</v>
+        <v>-9400</v>
       </c>
       <c r="F23" s="3">
-        <v>20700</v>
+        <v>-15000</v>
       </c>
       <c r="G23" s="3">
-        <v>4100</v>
+        <v>-9600</v>
       </c>
       <c r="H23" s="3">
+        <v>18800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-79300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>12400</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>-38400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1433,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8800</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
-        <v>17200</v>
+        <v>-9800</v>
       </c>
       <c r="F26" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-12600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-9200</v>
       </c>
       <c r="H26" s="3">
+        <v>18100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
         <v>-39400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8500</v>
+        <v>-2600</v>
       </c>
       <c r="E27" s="3">
-        <v>16800</v>
+        <v>-9400</v>
       </c>
       <c r="F27" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8900</v>
       </c>
       <c r="H27" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
         <v>-39400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1565,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1609,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1653,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1697,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>62300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>38900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8500</v>
+        <v>-2600</v>
       </c>
       <c r="E33" s="3">
-        <v>16800</v>
+        <v>-9400</v>
       </c>
       <c r="F33" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8900</v>
       </c>
       <c r="H33" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3">
         <v>-39400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1829,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8500</v>
+        <v>-2600</v>
       </c>
       <c r="E35" s="3">
-        <v>16800</v>
+        <v>-9400</v>
       </c>
       <c r="F35" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8900</v>
       </c>
       <c r="H35" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3">
         <v>-39400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1946,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,28 +1964,31 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22400</v>
+        <v>10100</v>
       </c>
       <c r="E41" s="3">
-        <v>8900</v>
+        <v>11700</v>
       </c>
       <c r="F41" s="3">
-        <v>33900</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>35500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1741,8 +2002,17 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,28 +2046,37 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12200</v>
+        <v>12700</v>
       </c>
       <c r="E43" s="3">
-        <v>14600</v>
+        <v>10000</v>
       </c>
       <c r="F43" s="3">
-        <v>24000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>25200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1811,28 +2090,37 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="E44" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F44" s="3">
-        <v>35000</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I44" s="3">
+        <v>36700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1846,19 +2134,28 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1866,11 +2163,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -1881,28 +2178,37 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>38400</v>
+        <v>31600</v>
       </c>
       <c r="E46" s="3">
-        <v>27800</v>
+        <v>25700</v>
       </c>
       <c r="F46" s="3">
-        <v>30800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>32200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>40300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>18300</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1916,28 +2222,37 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>143300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1951,28 +2266,37 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>77700</v>
+        <v>109600</v>
       </c>
       <c r="E48" s="3">
-        <v>77200</v>
+        <v>76100</v>
       </c>
       <c r="F48" s="3">
-        <v>155200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>79000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>81300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>80900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>166100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1986,28 +2310,37 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25500</v>
+        <v>60800</v>
       </c>
       <c r="E49" s="3">
-        <v>24800</v>
+        <v>29800</v>
       </c>
       <c r="F49" s="3">
-        <v>74100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>27800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>89100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2398,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,28 +2442,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="E52" s="3">
-        <v>5400</v>
+        <v>15600</v>
       </c>
       <c r="F52" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>14700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>170300</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,28 +2530,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>152100</v>
+        <v>217300</v>
       </c>
       <c r="E54" s="3">
-        <v>136800</v>
+        <v>148500</v>
       </c>
       <c r="F54" s="3">
-        <v>141700</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>155300</v>
+      </c>
+      <c r="G54" s="3">
+        <v>159300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>143300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>156200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2196,8 +2574,17 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2598,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,28 +2616,31 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
-        <v>13600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2800</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2261,28 +2654,37 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>23800</v>
+        <v>31300</v>
       </c>
       <c r="E58" s="3">
-        <v>17600</v>
+        <v>32300</v>
       </c>
       <c r="F58" s="3">
-        <v>24500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>26700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>61500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2296,28 +2698,37 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12300</v>
+        <v>30000</v>
       </c>
       <c r="E59" s="3">
-        <v>11900</v>
+        <v>12800</v>
       </c>
       <c r="F59" s="3">
-        <v>123500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>17700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>280200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2331,28 +2742,37 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38500</v>
+        <v>67600</v>
       </c>
       <c r="E60" s="3">
-        <v>32100</v>
+        <v>48600</v>
       </c>
       <c r="F60" s="3">
-        <v>59600</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>47700</v>
+      </c>
+      <c r="G60" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>33600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>43300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2366,28 +2786,37 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25900</v>
+        <v>60900</v>
       </c>
       <c r="E61" s="3">
-        <v>105500</v>
+        <v>23900</v>
       </c>
       <c r="F61" s="3">
-        <v>133700</v>
+        <v>25100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>27200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>110500</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>133300</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2401,25 +2830,34 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>9900</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="F62" s="3">
-        <v>129000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>1900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2436,8 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2918,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2962,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,28 +3006,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>72600</v>
+        <v>148400</v>
       </c>
       <c r="E66" s="3">
-        <v>146000</v>
+        <v>80100</v>
       </c>
       <c r="F66" s="3">
-        <v>170400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>80600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>76000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>152900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>178500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2576,8 +3050,17 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +3074,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +3112,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +3156,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +3200,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,28 +3244,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-35200</v>
+        <v>-60800</v>
       </c>
       <c r="E72" s="3">
-        <v>-26600</v>
+        <v>-58200</v>
       </c>
       <c r="F72" s="3">
-        <v>-71800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-48900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-45200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2766,8 +3288,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +3332,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3376,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,28 +3420,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>79500</v>
+        <v>68800</v>
       </c>
       <c r="E76" s="3">
-        <v>-9100</v>
+        <v>68400</v>
       </c>
       <c r="F76" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>74600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>83300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-29600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2906,8 +3464,17 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3508,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8500</v>
+        <v>-2600</v>
       </c>
       <c r="E81" s="3">
-        <v>16800</v>
+        <v>-9400</v>
       </c>
       <c r="F81" s="3">
-        <v>11500</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8900</v>
       </c>
       <c r="H81" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="3">
         <v>-39400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3625,11 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3663,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3707,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3751,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3795,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3839,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3883,17 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3276,8 +3927,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3951,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +4033,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +4077,17 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3431,8 +4121,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +4145,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +4183,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +4227,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +4271,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,8 +4315,17 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +4359,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,8 +4403,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3689,6 +4445,15 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>42800</v>
+        <v>43000</v>
       </c>
       <c r="E8" s="3">
-        <v>25400</v>
+        <v>25500</v>
       </c>
       <c r="F8" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="G8" s="3">
-        <v>36200</v>
+        <v>36400</v>
       </c>
       <c r="H8" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="I8" s="3">
-        <v>57400</v>
+        <v>57700</v>
       </c>
       <c r="J8" s="3">
-        <v>27500</v>
+        <v>27600</v>
       </c>
       <c r="K8" s="3">
         <v>56400</v>
@@ -787,10 +787,10 @@
         <v>10900</v>
       </c>
       <c r="F9" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G9" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="H9" s="3">
         <v>11200</v>
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27300</v>
+        <v>27500</v>
       </c>
       <c r="E10" s="3">
         <v>14500</v>
@@ -834,16 +834,16 @@
         <v>5300</v>
       </c>
       <c r="G10" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="H10" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="I10" s="3">
-        <v>49800</v>
+        <v>50000</v>
       </c>
       <c r="J10" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="K10" s="3">
         <v>48100</v>
@@ -1078,19 +1078,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46000</v>
+        <v>46200</v>
       </c>
       <c r="E17" s="3">
-        <v>33600</v>
+        <v>33700</v>
       </c>
       <c r="F17" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="G17" s="3">
-        <v>45400</v>
+        <v>45600</v>
       </c>
       <c r="H17" s="3">
-        <v>35000</v>
+        <v>35200</v>
       </c>
       <c r="I17" s="3">
         <v>-800</v>
@@ -1125,19 +1125,19 @@
         <v>-3300</v>
       </c>
       <c r="E18" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="F18" s="3">
-        <v>-14300</v>
+        <v>-14400</v>
       </c>
       <c r="G18" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="H18" s="3">
         <v>1100</v>
       </c>
       <c r="I18" s="3">
-        <v>58200</v>
+        <v>58500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1196,10 +1196,10 @@
         <v>-400</v>
       </c>
       <c r="H20" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I20" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>52200</v>
+        <v>52400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1331,7 +1331,7 @@
         <v>18800</v>
       </c>
       <c r="I23" s="3">
-        <v>21700</v>
+        <v>21800</v>
       </c>
       <c r="J23" s="3">
         <v>4300</v>
@@ -1369,7 +1369,7 @@
         <v>-2300</v>
       </c>
       <c r="G24" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
@@ -1454,16 +1454,16 @@
         <v>-9800</v>
       </c>
       <c r="F26" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="G26" s="3">
-        <v>-9200</v>
+        <v>-9300</v>
       </c>
       <c r="H26" s="3">
         <v>18100</v>
       </c>
       <c r="I26" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1498,16 +1498,16 @@
         <v>-9400</v>
       </c>
       <c r="F27" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G27" s="3">
         <v>-8900</v>
       </c>
       <c r="H27" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I27" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1724,10 +1724,10 @@
         <v>400</v>
       </c>
       <c r="H32" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="I32" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1762,16 +1762,16 @@
         <v>-9400</v>
       </c>
       <c r="F33" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G33" s="3">
         <v>-8900</v>
       </c>
       <c r="H33" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I33" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1850,16 +1850,16 @@
         <v>-9400</v>
       </c>
       <c r="F35" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G35" s="3">
         <v>-8900</v>
       </c>
       <c r="H35" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I35" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1979,16 +1979,16 @@
         <v>11700</v>
       </c>
       <c r="F41" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G41" s="3">
-        <v>23500</v>
+        <v>23600</v>
       </c>
       <c r="H41" s="3">
         <v>9400</v>
       </c>
       <c r="I41" s="3">
-        <v>35500</v>
+        <v>35600</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -2061,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="E43" s="3">
         <v>10000</v>
@@ -2076,7 +2076,7 @@
         <v>15300</v>
       </c>
       <c r="I43" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -2120,7 +2120,7 @@
         <v>4500</v>
       </c>
       <c r="I44" s="3">
-        <v>36700</v>
+        <v>36900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2193,22 +2193,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31600</v>
+        <v>31800</v>
       </c>
       <c r="E46" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="F46" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="G46" s="3">
-        <v>40300</v>
+        <v>40400</v>
       </c>
       <c r="H46" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="I46" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2252,7 +2252,7 @@
         <v>1600</v>
       </c>
       <c r="I47" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2281,22 +2281,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>109600</v>
+        <v>110000</v>
       </c>
       <c r="E48" s="3">
-        <v>76100</v>
+        <v>76400</v>
       </c>
       <c r="F48" s="3">
-        <v>79000</v>
+        <v>79400</v>
       </c>
       <c r="G48" s="3">
+        <v>81700</v>
+      </c>
+      <c r="H48" s="3">
         <v>81300</v>
       </c>
-      <c r="H48" s="3">
-        <v>80900</v>
-      </c>
       <c r="I48" s="3">
-        <v>166100</v>
+        <v>166800</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2325,22 +2325,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>60800</v>
+        <v>61100</v>
       </c>
       <c r="E49" s="3">
-        <v>29800</v>
+        <v>30000</v>
       </c>
       <c r="F49" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="G49" s="3">
-        <v>26700</v>
+        <v>26800</v>
       </c>
       <c r="H49" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="I49" s="3">
-        <v>89100</v>
+        <v>89500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2460,19 +2460,19 @@
         <v>14000</v>
       </c>
       <c r="E52" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="F52" s="3">
         <v>14700</v>
       </c>
       <c r="G52" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="H52" s="3">
         <v>5700</v>
       </c>
       <c r="I52" s="3">
-        <v>170300</v>
+        <v>171000</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2545,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>217300</v>
+        <v>218200</v>
       </c>
       <c r="E54" s="3">
-        <v>148500</v>
+        <v>149200</v>
       </c>
       <c r="F54" s="3">
-        <v>155300</v>
+        <v>155900</v>
       </c>
       <c r="G54" s="3">
-        <v>159300</v>
+        <v>160000</v>
       </c>
       <c r="H54" s="3">
-        <v>143300</v>
+        <v>143900</v>
       </c>
       <c r="I54" s="3">
-        <v>156200</v>
+        <v>156800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2669,22 +2669,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31300</v>
+        <v>31400</v>
       </c>
       <c r="E58" s="3">
-        <v>32300</v>
+        <v>32400</v>
       </c>
       <c r="F58" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="G58" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H58" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="I58" s="3">
-        <v>61500</v>
+        <v>61800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2713,13 +2713,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30000</v>
+        <v>30100</v>
       </c>
       <c r="E59" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F59" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="G59" s="3">
         <v>12900</v>
@@ -2728,7 +2728,7 @@
         <v>12500</v>
       </c>
       <c r="I59" s="3">
-        <v>280200</v>
+        <v>281400</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2757,22 +2757,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67600</v>
+        <v>67800</v>
       </c>
       <c r="E60" s="3">
-        <v>48600</v>
+        <v>48800</v>
       </c>
       <c r="F60" s="3">
-        <v>47700</v>
+        <v>47900</v>
       </c>
       <c r="G60" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="H60" s="3">
-        <v>33600</v>
+        <v>33800</v>
       </c>
       <c r="I60" s="3">
-        <v>43300</v>
+        <v>43500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2801,22 +2801,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60900</v>
+        <v>61200</v>
       </c>
       <c r="E61" s="3">
-        <v>23900</v>
+        <v>24000</v>
       </c>
       <c r="F61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="G61" s="3">
-        <v>27200</v>
+        <v>27300</v>
       </c>
       <c r="H61" s="3">
-        <v>110500</v>
+        <v>111000</v>
       </c>
       <c r="I61" s="3">
-        <v>133300</v>
+        <v>133900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3021,22 +3021,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>148400</v>
+        <v>149100</v>
       </c>
       <c r="E66" s="3">
-        <v>80100</v>
+        <v>80400</v>
       </c>
       <c r="F66" s="3">
-        <v>80600</v>
+        <v>81000</v>
       </c>
       <c r="G66" s="3">
-        <v>76000</v>
+        <v>76300</v>
       </c>
       <c r="H66" s="3">
-        <v>152900</v>
+        <v>153500</v>
       </c>
       <c r="I66" s="3">
-        <v>178500</v>
+        <v>179200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -3259,22 +3259,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60800</v>
+        <v>-61100</v>
       </c>
       <c r="E72" s="3">
-        <v>-58200</v>
+        <v>-58500</v>
       </c>
       <c r="F72" s="3">
-        <v>-48900</v>
+        <v>-49100</v>
       </c>
       <c r="G72" s="3">
-        <v>-36800</v>
+        <v>-37000</v>
       </c>
       <c r="H72" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="I72" s="3">
-        <v>-45200</v>
+        <v>-45400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -3435,22 +3435,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68800</v>
+        <v>69100</v>
       </c>
       <c r="E76" s="3">
-        <v>68400</v>
+        <v>68700</v>
       </c>
       <c r="F76" s="3">
-        <v>74600</v>
+        <v>75000</v>
       </c>
       <c r="G76" s="3">
-        <v>83300</v>
+        <v>83600</v>
       </c>
       <c r="H76" s="3">
         <v>-9600</v>
       </c>
       <c r="I76" s="3">
-        <v>-29600</v>
+        <v>-29700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3578,16 +3578,16 @@
         <v>-9400</v>
       </c>
       <c r="F81" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G81" s="3">
         <v>-8900</v>
       </c>
       <c r="H81" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="I81" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,218 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>43000</v>
+        <v>56600</v>
       </c>
       <c r="E8" s="3">
-        <v>25500</v>
+        <v>43900</v>
       </c>
       <c r="F8" s="3">
-        <v>13900</v>
+        <v>26000</v>
       </c>
       <c r="G8" s="3">
-        <v>36400</v>
+        <v>14200</v>
       </c>
       <c r="H8" s="3">
-        <v>36300</v>
+        <v>37100</v>
       </c>
       <c r="I8" s="3">
-        <v>57700</v>
+        <v>37100</v>
       </c>
       <c r="J8" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K8" s="3">
         <v>27600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>56400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>50500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>19900</v>
       </c>
       <c r="E9" s="3">
-        <v>10900</v>
+        <v>15900</v>
       </c>
       <c r="F9" s="3">
-        <v>8600</v>
+        <v>11200</v>
       </c>
       <c r="G9" s="3">
-        <v>11600</v>
+        <v>8800</v>
       </c>
       <c r="H9" s="3">
-        <v>11200</v>
+        <v>11800</v>
       </c>
       <c r="I9" s="3">
-        <v>7700</v>
+        <v>11500</v>
       </c>
       <c r="J9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K9" s="3">
         <v>9100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27500</v>
+        <v>36700</v>
       </c>
       <c r="E10" s="3">
-        <v>14500</v>
+        <v>28000</v>
       </c>
       <c r="F10" s="3">
-        <v>5300</v>
+        <v>14900</v>
       </c>
       <c r="G10" s="3">
-        <v>24800</v>
+        <v>5400</v>
       </c>
       <c r="H10" s="3">
-        <v>25100</v>
+        <v>25300</v>
       </c>
       <c r="I10" s="3">
-        <v>50000</v>
+        <v>25600</v>
       </c>
       <c r="J10" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K10" s="3">
         <v>18500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>48100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>5100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -983,38 +1002,41 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>9200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1097,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>46200</v>
+        <v>65900</v>
       </c>
       <c r="E17" s="3">
-        <v>33700</v>
+        <v>47200</v>
       </c>
       <c r="F17" s="3">
-        <v>28300</v>
+        <v>34500</v>
       </c>
       <c r="G17" s="3">
-        <v>45600</v>
+        <v>28900</v>
       </c>
       <c r="H17" s="3">
-        <v>35200</v>
+        <v>46500</v>
       </c>
       <c r="I17" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J17" s="3">
         <v>-800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
         <v>-1300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1116,52 +1142,58 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-8300</v>
-      </c>
       <c r="F18" s="3">
-        <v>-14400</v>
+        <v>-8400</v>
       </c>
       <c r="G18" s="3">
-        <v>-9200</v>
+        <v>-14700</v>
       </c>
       <c r="H18" s="3">
-        <v>1100</v>
+        <v>-9400</v>
       </c>
       <c r="I18" s="3">
-        <v>58500</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>59700</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>57800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>50500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1210,56 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>17700</v>
-      </c>
       <c r="I20" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>-62300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-38900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1239,35 +1275,38 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>52400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="H21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>13000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1286,120 +1325,129 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>28100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>74700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>6700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4100</v>
+        <v>-11300</v>
       </c>
       <c r="E23" s="3">
-        <v>-9400</v>
+        <v>-4200</v>
       </c>
       <c r="F23" s="3">
-        <v>-15000</v>
+        <v>-9600</v>
       </c>
       <c r="G23" s="3">
-        <v>-9600</v>
+        <v>-15400</v>
       </c>
       <c r="H23" s="3">
-        <v>18800</v>
+        <v>-9800</v>
       </c>
       <c r="I23" s="3">
-        <v>21800</v>
+        <v>19200</v>
       </c>
       <c r="J23" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-79300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>13000</v>
-      </c>
       <c r="J24" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-38400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2700</v>
+        <v>-12700</v>
       </c>
       <c r="E26" s="3">
-        <v>-9800</v>
+        <v>-2800</v>
       </c>
       <c r="F26" s="3">
-        <v>-12700</v>
+        <v>-10000</v>
       </c>
       <c r="G26" s="3">
-        <v>-9300</v>
+        <v>-13000</v>
       </c>
       <c r="H26" s="3">
-        <v>18100</v>
+        <v>-9500</v>
       </c>
       <c r="I26" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3">
         <v>-39400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F27" s="3">
-        <v>-12100</v>
+        <v>-9600</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
+        <v>-12300</v>
       </c>
       <c r="H27" s="3">
-        <v>17700</v>
+        <v>-9100</v>
       </c>
       <c r="I27" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3">
         <v>-39400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-17700</v>
-      </c>
       <c r="I32" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>62300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>38900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F33" s="3">
-        <v>-12100</v>
+        <v>-9600</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
+        <v>-12300</v>
       </c>
       <c r="H33" s="3">
-        <v>17700</v>
+        <v>-9100</v>
       </c>
       <c r="I33" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
         <v>-39400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F35" s="3">
-        <v>-12100</v>
+        <v>-9600</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
+        <v>-12300</v>
       </c>
       <c r="H35" s="3">
-        <v>17700</v>
+        <v>-9100</v>
       </c>
       <c r="I35" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3">
         <v>-39400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2052,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10100</v>
+        <v>6900</v>
       </c>
       <c r="E41" s="3">
-        <v>11700</v>
+        <v>10300</v>
       </c>
       <c r="F41" s="3">
-        <v>15400</v>
+        <v>11900</v>
       </c>
       <c r="G41" s="3">
-        <v>23600</v>
+        <v>15700</v>
       </c>
       <c r="H41" s="3">
-        <v>9400</v>
+        <v>24100</v>
       </c>
       <c r="I41" s="3">
-        <v>35600</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>9600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>36400</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,31 +2144,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12800</v>
+        <v>18700</v>
       </c>
       <c r="E43" s="3">
-        <v>10000</v>
+        <v>13100</v>
       </c>
       <c r="F43" s="3">
-        <v>12900</v>
+        <v>10200</v>
       </c>
       <c r="G43" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="H43" s="3">
-        <v>15300</v>
+        <v>13100</v>
       </c>
       <c r="I43" s="3">
-        <v>25300</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>25800</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2099,31 +2191,34 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4500</v>
-      </c>
       <c r="I44" s="3">
-        <v>36900</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>37600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2143,34 +2238,37 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2187,31 +2285,34 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31800</v>
+        <v>32200</v>
       </c>
       <c r="E46" s="3">
-        <v>25800</v>
+        <v>32400</v>
       </c>
       <c r="F46" s="3">
-        <v>32400</v>
+        <v>26400</v>
       </c>
       <c r="G46" s="3">
-        <v>40400</v>
+        <v>33100</v>
       </c>
       <c r="H46" s="3">
-        <v>29300</v>
+        <v>41300</v>
       </c>
       <c r="I46" s="3">
-        <v>18400</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>29900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>30000</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,19 +2347,19 @@
         <v>1300</v>
       </c>
       <c r="F47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G47" s="3">
         <v>1500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1600</v>
       </c>
       <c r="H47" s="3">
         <v>1600</v>
       </c>
       <c r="I47" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2275,31 +2379,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>110000</v>
+        <v>83000</v>
       </c>
       <c r="E48" s="3">
-        <v>76400</v>
+        <v>112400</v>
       </c>
       <c r="F48" s="3">
-        <v>79400</v>
+        <v>78000</v>
       </c>
       <c r="G48" s="3">
-        <v>81700</v>
+        <v>81000</v>
       </c>
       <c r="H48" s="3">
-        <v>81300</v>
+        <v>83400</v>
       </c>
       <c r="I48" s="3">
-        <v>166800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>83000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>170600</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2319,31 +2426,34 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>61100</v>
+        <v>32500</v>
       </c>
       <c r="E49" s="3">
-        <v>30000</v>
+        <v>62400</v>
       </c>
       <c r="F49" s="3">
-        <v>28000</v>
+        <v>30600</v>
       </c>
       <c r="G49" s="3">
-        <v>26800</v>
+        <v>28600</v>
       </c>
       <c r="H49" s="3">
-        <v>26000</v>
+        <v>27400</v>
       </c>
       <c r="I49" s="3">
-        <v>89500</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>26600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>95600</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2567,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="E52" s="3">
-        <v>15700</v>
+        <v>14300</v>
       </c>
       <c r="F52" s="3">
-        <v>14700</v>
+        <v>16000</v>
       </c>
       <c r="G52" s="3">
-        <v>9500</v>
+        <v>15100</v>
       </c>
       <c r="H52" s="3">
-        <v>5700</v>
+        <v>9700</v>
       </c>
       <c r="I52" s="3">
-        <v>171000</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>36500</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2661,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>218200</v>
+        <v>162000</v>
       </c>
       <c r="E54" s="3">
-        <v>149200</v>
+        <v>222800</v>
       </c>
       <c r="F54" s="3">
-        <v>155900</v>
+        <v>152300</v>
       </c>
       <c r="G54" s="3">
-        <v>160000</v>
+        <v>159200</v>
       </c>
       <c r="H54" s="3">
-        <v>143900</v>
+        <v>163400</v>
       </c>
       <c r="I54" s="3">
-        <v>156800</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>147000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>155000</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
-        <v>3300</v>
-      </c>
       <c r="G57" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="H57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>2800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2663,31 +2793,34 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31400</v>
+        <v>26800</v>
       </c>
       <c r="E58" s="3">
-        <v>32400</v>
+        <v>32100</v>
       </c>
       <c r="F58" s="3">
-        <v>26900</v>
+        <v>33100</v>
       </c>
       <c r="G58" s="3">
-        <v>25000</v>
+        <v>27400</v>
       </c>
       <c r="H58" s="3">
-        <v>18500</v>
+        <v>25500</v>
       </c>
       <c r="I58" s="3">
-        <v>61800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>18900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>65000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2707,31 +2840,34 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30100</v>
+        <v>15000</v>
       </c>
       <c r="E59" s="3">
-        <v>12900</v>
+        <v>30800</v>
       </c>
       <c r="F59" s="3">
-        <v>17800</v>
+        <v>13200</v>
       </c>
       <c r="G59" s="3">
-        <v>12900</v>
+        <v>18200</v>
       </c>
       <c r="H59" s="3">
-        <v>12500</v>
+        <v>13200</v>
       </c>
       <c r="I59" s="3">
-        <v>281400</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>470700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2751,31 +2887,34 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67800</v>
+        <v>47100</v>
       </c>
       <c r="E60" s="3">
-        <v>48800</v>
+        <v>69300</v>
       </c>
       <c r="F60" s="3">
-        <v>47900</v>
+        <v>49800</v>
       </c>
       <c r="G60" s="3">
-        <v>40500</v>
+        <v>48900</v>
       </c>
       <c r="H60" s="3">
-        <v>33800</v>
+        <v>41400</v>
       </c>
       <c r="I60" s="3">
-        <v>43500</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>34500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>37600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2795,31 +2934,34 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>61200</v>
+        <v>45100</v>
       </c>
       <c r="E61" s="3">
-        <v>24000</v>
+        <v>62500</v>
       </c>
       <c r="F61" s="3">
-        <v>25200</v>
+        <v>24500</v>
       </c>
       <c r="G61" s="3">
-        <v>27300</v>
+        <v>25800</v>
       </c>
       <c r="H61" s="3">
-        <v>111000</v>
+        <v>27900</v>
       </c>
       <c r="I61" s="3">
-        <v>133900</v>
+        <v>113400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>136700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,31 +2981,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9900</v>
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1900</v>
       </c>
       <c r="G62" s="3">
         <v>1900</v>
       </c>
       <c r="H62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>141200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3169,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>149100</v>
+        <v>101000</v>
       </c>
       <c r="E66" s="3">
-        <v>80400</v>
+        <v>152200</v>
       </c>
       <c r="F66" s="3">
-        <v>81000</v>
+        <v>82100</v>
       </c>
       <c r="G66" s="3">
-        <v>76300</v>
+        <v>82700</v>
       </c>
       <c r="H66" s="3">
-        <v>153500</v>
+        <v>78000</v>
       </c>
       <c r="I66" s="3">
-        <v>179200</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>156800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>183000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3423,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-61100</v>
+        <v>-74600</v>
       </c>
       <c r="E72" s="3">
-        <v>-58500</v>
+        <v>-62400</v>
       </c>
       <c r="F72" s="3">
-        <v>-49100</v>
+        <v>-59700</v>
       </c>
       <c r="G72" s="3">
-        <v>-37000</v>
+        <v>-50100</v>
       </c>
       <c r="H72" s="3">
-        <v>-28000</v>
+        <v>-37800</v>
       </c>
       <c r="I72" s="3">
-        <v>-45400</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-28500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-46400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3611,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69100</v>
+        <v>61000</v>
       </c>
       <c r="E76" s="3">
-        <v>68700</v>
+        <v>70600</v>
       </c>
       <c r="F76" s="3">
-        <v>75000</v>
+        <v>70200</v>
       </c>
       <c r="G76" s="3">
-        <v>83600</v>
+        <v>76500</v>
       </c>
       <c r="H76" s="3">
-        <v>-9600</v>
+        <v>85400</v>
       </c>
       <c r="I76" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-30300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F81" s="3">
-        <v>-12100</v>
+        <v>-9600</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
+        <v>-12300</v>
       </c>
       <c r="H81" s="3">
-        <v>17700</v>
+        <v>-9100</v>
       </c>
       <c r="I81" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3">
         <v>-39400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>56600</v>
+        <v>32400</v>
       </c>
       <c r="E8" s="3">
-        <v>43900</v>
+        <v>55800</v>
       </c>
       <c r="F8" s="3">
-        <v>26000</v>
+        <v>43300</v>
       </c>
       <c r="G8" s="3">
-        <v>14200</v>
+        <v>25700</v>
       </c>
       <c r="H8" s="3">
-        <v>37100</v>
+        <v>14000</v>
       </c>
       <c r="I8" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="J8" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K8" s="3">
         <v>58900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>56400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>50500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>23900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>19900</v>
+        <v>13600</v>
       </c>
       <c r="E9" s="3">
-        <v>15900</v>
+        <v>19600</v>
       </c>
       <c r="F9" s="3">
-        <v>11200</v>
+        <v>15600</v>
       </c>
       <c r="G9" s="3">
-        <v>8800</v>
+        <v>11000</v>
       </c>
       <c r="H9" s="3">
-        <v>11800</v>
+        <v>8600</v>
       </c>
       <c r="I9" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="J9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>36700</v>
+        <v>18800</v>
       </c>
       <c r="E10" s="3">
-        <v>28000</v>
+        <v>36200</v>
       </c>
       <c r="F10" s="3">
-        <v>14900</v>
+        <v>27700</v>
       </c>
       <c r="G10" s="3">
+        <v>14700</v>
+      </c>
+      <c r="H10" s="3">
         <v>5400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J10" s="3">
         <v>25300</v>
       </c>
-      <c r="I10" s="3">
-        <v>25600</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>48100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>15000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>10300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>9200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>7600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>65900</v>
+        <v>34600</v>
       </c>
       <c r="E17" s="3">
-        <v>47200</v>
+        <v>65100</v>
       </c>
       <c r="F17" s="3">
-        <v>34500</v>
+        <v>46600</v>
       </c>
       <c r="G17" s="3">
-        <v>28900</v>
+        <v>34000</v>
       </c>
       <c r="H17" s="3">
-        <v>46500</v>
+        <v>28500</v>
       </c>
       <c r="I17" s="3">
-        <v>35900</v>
+        <v>45900</v>
       </c>
       <c r="J17" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K17" s="3">
         <v>-800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
         <v>-1300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1145,55 +1172,61 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="E18" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>59700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>57800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>50500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>18100</v>
-      </c>
       <c r="J20" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>-62300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>-38900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,38 +1312,41 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>50300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>13000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1328,126 +1368,135 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>28700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>74700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>6700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11300</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-11100</v>
       </c>
       <c r="F23" s="3">
-        <v>-9600</v>
+        <v>-4100</v>
       </c>
       <c r="G23" s="3">
-        <v>-15400</v>
+        <v>-9500</v>
       </c>
       <c r="H23" s="3">
-        <v>-9800</v>
+        <v>-15200</v>
       </c>
       <c r="I23" s="3">
-        <v>19200</v>
+        <v>-9700</v>
       </c>
       <c r="J23" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K23" s="3">
         <v>22300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-79300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-38400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12700</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
-        <v>-2800</v>
+        <v>-12600</v>
       </c>
       <c r="F26" s="3">
-        <v>-10000</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
-        <v>-13000</v>
+        <v>-9900</v>
       </c>
       <c r="H26" s="3">
-        <v>-9500</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3">
-        <v>18500</v>
+        <v>-9300</v>
       </c>
       <c r="J26" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
         <v>-39400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
         <v>2300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-12200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I27" s="3">
-        <v>18000</v>
+        <v>-9000</v>
       </c>
       <c r="J27" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3">
         <v>-39400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
         <v>2300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>-18100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>62300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>38900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-12200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I33" s="3">
-        <v>18000</v>
+        <v>-9000</v>
       </c>
       <c r="J33" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3">
         <v>-39400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
         <v>2300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-12200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I35" s="3">
-        <v>18000</v>
+        <v>-9000</v>
       </c>
       <c r="J35" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3">
         <v>-39400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
         <v>2300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6900</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>10300</v>
+        <v>6800</v>
       </c>
       <c r="F41" s="3">
-        <v>11900</v>
+        <v>10200</v>
       </c>
       <c r="G41" s="3">
-        <v>15700</v>
+        <v>11800</v>
       </c>
       <c r="H41" s="3">
-        <v>24100</v>
+        <v>15500</v>
       </c>
       <c r="I41" s="3">
-        <v>9600</v>
+        <v>23800</v>
       </c>
       <c r="J41" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18700</v>
+        <v>14500</v>
       </c>
       <c r="E43" s="3">
-        <v>13100</v>
+        <v>18400</v>
       </c>
       <c r="F43" s="3">
-        <v>10200</v>
+        <v>12900</v>
       </c>
       <c r="G43" s="3">
-        <v>13200</v>
+        <v>10100</v>
       </c>
       <c r="H43" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I43" s="3">
-        <v>15700</v>
+        <v>12900</v>
       </c>
       <c r="J43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="K43" s="3">
         <v>25800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2203,26 +2299,26 @@
         <v>5200</v>
       </c>
       <c r="E44" s="3">
-        <v>5700</v>
+        <v>5100</v>
       </c>
       <c r="F44" s="3">
-        <v>4200</v>
+        <v>5600</v>
       </c>
       <c r="G44" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H44" s="3">
         <v>4100</v>
       </c>
       <c r="I44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>37600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,28 +2349,28 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>32200</v>
+        <v>23500</v>
       </c>
       <c r="E46" s="3">
-        <v>32400</v>
+        <v>31700</v>
       </c>
       <c r="F46" s="3">
-        <v>26400</v>
+        <v>32000</v>
       </c>
       <c r="G46" s="3">
-        <v>33100</v>
+        <v>26000</v>
       </c>
       <c r="H46" s="3">
-        <v>41300</v>
+        <v>32600</v>
       </c>
       <c r="I46" s="3">
-        <v>29900</v>
+        <v>40800</v>
       </c>
       <c r="J46" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K46" s="3">
         <v>30000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2350,20 +2455,20 @@
         <v>1300</v>
       </c>
       <c r="G47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H47" s="3">
         <v>1500</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1600</v>
       </c>
       <c r="I47" s="3">
         <v>1600</v>
       </c>
       <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83000</v>
+        <v>83800</v>
       </c>
       <c r="E48" s="3">
-        <v>112400</v>
+        <v>81900</v>
       </c>
       <c r="F48" s="3">
-        <v>78000</v>
+        <v>110900</v>
       </c>
       <c r="G48" s="3">
-        <v>81000</v>
+        <v>77000</v>
       </c>
       <c r="H48" s="3">
-        <v>83400</v>
+        <v>80000</v>
       </c>
       <c r="I48" s="3">
-        <v>83000</v>
+        <v>82300</v>
       </c>
       <c r="J48" s="3">
+        <v>81900</v>
+      </c>
+      <c r="K48" s="3">
         <v>170600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,35 +2537,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32500</v>
+        <v>33500</v>
       </c>
       <c r="E49" s="3">
-        <v>62400</v>
+        <v>32100</v>
       </c>
       <c r="F49" s="3">
-        <v>30600</v>
+        <v>61600</v>
       </c>
       <c r="G49" s="3">
-        <v>28600</v>
+        <v>30200</v>
       </c>
       <c r="H49" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="I49" s="3">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="J49" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K49" s="3">
         <v>95600</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13000</v>
+        <v>9800</v>
       </c>
       <c r="E52" s="3">
-        <v>14300</v>
+        <v>12800</v>
       </c>
       <c r="F52" s="3">
-        <v>16000</v>
+        <v>14100</v>
       </c>
       <c r="G52" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>14900</v>
       </c>
       <c r="I52" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J52" s="3">
         <v>5800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162000</v>
+        <v>151900</v>
       </c>
       <c r="E54" s="3">
-        <v>222800</v>
+        <v>159800</v>
       </c>
       <c r="F54" s="3">
-        <v>152300</v>
+        <v>219900</v>
       </c>
       <c r="G54" s="3">
-        <v>159200</v>
+        <v>150400</v>
       </c>
       <c r="H54" s="3">
-        <v>163400</v>
+        <v>157200</v>
       </c>
       <c r="I54" s="3">
-        <v>147000</v>
+        <v>161200</v>
       </c>
       <c r="J54" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K54" s="3">
         <v>155000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,34 +2879,35 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5300</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
-        <v>6400</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
-        <v>3400</v>
-      </c>
       <c r="H57" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>2800</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
@@ -2796,35 +2927,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26800</v>
+        <v>22600</v>
       </c>
       <c r="E58" s="3">
-        <v>32100</v>
+        <v>26400</v>
       </c>
       <c r="F58" s="3">
-        <v>33100</v>
+        <v>31700</v>
       </c>
       <c r="G58" s="3">
-        <v>27400</v>
+        <v>32700</v>
       </c>
       <c r="H58" s="3">
-        <v>25500</v>
+        <v>27100</v>
       </c>
       <c r="I58" s="3">
-        <v>18900</v>
+        <v>25200</v>
       </c>
       <c r="J58" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K58" s="3">
         <v>65000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="E59" s="3">
-        <v>30800</v>
+        <v>14800</v>
       </c>
       <c r="F59" s="3">
-        <v>13200</v>
+        <v>30400</v>
       </c>
       <c r="G59" s="3">
-        <v>18200</v>
+        <v>13000</v>
       </c>
       <c r="H59" s="3">
-        <v>13200</v>
+        <v>17900</v>
       </c>
       <c r="I59" s="3">
-        <v>12800</v>
+        <v>13000</v>
       </c>
       <c r="J59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K59" s="3">
         <v>470700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47100</v>
+        <v>44100</v>
       </c>
       <c r="E60" s="3">
-        <v>69300</v>
+        <v>46500</v>
       </c>
       <c r="F60" s="3">
-        <v>49800</v>
+        <v>68400</v>
       </c>
       <c r="G60" s="3">
-        <v>48900</v>
+        <v>49200</v>
       </c>
       <c r="H60" s="3">
-        <v>41400</v>
+        <v>48300</v>
       </c>
       <c r="I60" s="3">
-        <v>34500</v>
+        <v>40900</v>
       </c>
       <c r="J60" s="3">
+        <v>34000</v>
+      </c>
+      <c r="K60" s="3">
         <v>37600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3077,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>45100</v>
+        <v>40300</v>
       </c>
       <c r="E61" s="3">
-        <v>62500</v>
+        <v>44500</v>
       </c>
       <c r="F61" s="3">
-        <v>24500</v>
+        <v>61700</v>
       </c>
       <c r="G61" s="3">
-        <v>25800</v>
+        <v>24200</v>
       </c>
       <c r="H61" s="3">
-        <v>27900</v>
+        <v>25400</v>
       </c>
       <c r="I61" s="3">
-        <v>113400</v>
+        <v>27500</v>
       </c>
       <c r="J61" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K61" s="3">
         <v>136700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E62" s="3">
-        <v>10100</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>141200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101000</v>
+        <v>92800</v>
       </c>
       <c r="E66" s="3">
-        <v>152200</v>
+        <v>99700</v>
       </c>
       <c r="F66" s="3">
-        <v>82100</v>
+        <v>150300</v>
       </c>
       <c r="G66" s="3">
-        <v>82700</v>
+        <v>81100</v>
       </c>
       <c r="H66" s="3">
-        <v>78000</v>
+        <v>81600</v>
       </c>
       <c r="I66" s="3">
-        <v>156800</v>
+        <v>76900</v>
       </c>
       <c r="J66" s="3">
+        <v>154700</v>
+      </c>
+      <c r="K66" s="3">
         <v>183000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-74600</v>
+        <v>-76400</v>
       </c>
       <c r="E72" s="3">
-        <v>-62400</v>
+        <v>-73600</v>
       </c>
       <c r="F72" s="3">
-        <v>-59700</v>
+        <v>-61600</v>
       </c>
       <c r="G72" s="3">
-        <v>-50100</v>
+        <v>-59000</v>
       </c>
       <c r="H72" s="3">
-        <v>-37800</v>
+        <v>-49500</v>
       </c>
       <c r="I72" s="3">
-        <v>-28500</v>
+        <v>-37300</v>
       </c>
       <c r="J72" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-46400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>61000</v>
+        <v>59100</v>
       </c>
       <c r="E76" s="3">
-        <v>70600</v>
+        <v>60200</v>
       </c>
       <c r="F76" s="3">
-        <v>70200</v>
+        <v>69700</v>
       </c>
       <c r="G76" s="3">
-        <v>76500</v>
+        <v>69300</v>
       </c>
       <c r="H76" s="3">
-        <v>85400</v>
+        <v>75500</v>
       </c>
       <c r="I76" s="3">
-        <v>-9800</v>
+        <v>84300</v>
       </c>
       <c r="J76" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-30300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-12200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-9100</v>
-      </c>
       <c r="I81" s="3">
-        <v>18000</v>
+        <v>-9000</v>
       </c>
       <c r="J81" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3">
         <v>-39400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3">
         <v>2300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>32400</v>
+        <v>35100</v>
       </c>
       <c r="E8" s="3">
-        <v>55800</v>
+        <v>33000</v>
       </c>
       <c r="F8" s="3">
-        <v>43300</v>
+        <v>56800</v>
       </c>
       <c r="G8" s="3">
-        <v>25700</v>
+        <v>44000</v>
       </c>
       <c r="H8" s="3">
-        <v>14000</v>
+        <v>26100</v>
       </c>
       <c r="I8" s="3">
-        <v>36700</v>
+        <v>14200</v>
       </c>
       <c r="J8" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K8" s="3">
         <v>36600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>56400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>50500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23900</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="E9" s="3">
-        <v>19600</v>
+        <v>13800</v>
       </c>
       <c r="F9" s="3">
-        <v>15600</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="3">
-        <v>11000</v>
+        <v>15900</v>
       </c>
       <c r="H9" s="3">
-        <v>8600</v>
+        <v>11200</v>
       </c>
       <c r="I9" s="3">
-        <v>11700</v>
+        <v>8800</v>
       </c>
       <c r="J9" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K9" s="3">
         <v>11300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>18800</v>
+        <v>20900</v>
       </c>
       <c r="E10" s="3">
-        <v>36200</v>
+        <v>19100</v>
       </c>
       <c r="F10" s="3">
-        <v>27700</v>
+        <v>36800</v>
       </c>
       <c r="G10" s="3">
-        <v>14700</v>
+        <v>28100</v>
       </c>
       <c r="H10" s="3">
-        <v>5400</v>
+        <v>14900</v>
       </c>
       <c r="I10" s="3">
-        <v>25000</v>
+        <v>5500</v>
       </c>
       <c r="J10" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K10" s="3">
         <v>25300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>17700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>15000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5200</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1028,38 +1048,41 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>10300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>9200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>7600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>66100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>47400</v>
+      </c>
+      <c r="H17" s="3">
         <v>34600</v>
       </c>
-      <c r="E17" s="3">
-        <v>65100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>46600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>34000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>28500</v>
-      </c>
       <c r="I17" s="3">
-        <v>45900</v>
+        <v>29000</v>
       </c>
       <c r="J17" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K17" s="3">
         <v>35500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
         <v>-1300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1175,58 +1202,64 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2100</v>
+        <v>-49900</v>
       </c>
       <c r="E18" s="3">
-        <v>-9200</v>
+        <v>-2200</v>
       </c>
       <c r="F18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-14500</v>
+        <v>-8500</v>
       </c>
       <c r="I18" s="3">
-        <v>-9300</v>
+        <v>-14700</v>
       </c>
       <c r="J18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>57800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>50500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,49 +1288,52 @@
         <v>-800</v>
       </c>
       <c r="E20" s="3">
-        <v>-1900</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>17800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>-62300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>-38900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1315,38 +1352,41 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>50300</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>13000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,132 +1411,141 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>28700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>74700</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2900</v>
+        <v>-50700</v>
       </c>
       <c r="E23" s="3">
-        <v>-11100</v>
+        <v>-3000</v>
       </c>
       <c r="F23" s="3">
-        <v>-4100</v>
+        <v>-11300</v>
       </c>
       <c r="G23" s="3">
-        <v>-9500</v>
+        <v>-4200</v>
       </c>
       <c r="H23" s="3">
-        <v>-15200</v>
+        <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-9700</v>
+        <v>-15400</v>
       </c>
       <c r="J23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K23" s="3">
         <v>19000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-79300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>1400</v>
-      </c>
       <c r="F24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-38400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3100</v>
+        <v>-50800</v>
       </c>
       <c r="E26" s="3">
-        <v>-12600</v>
+        <v>-3200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2700</v>
+        <v>-12800</v>
       </c>
       <c r="G26" s="3">
-        <v>-9900</v>
+        <v>-2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-12800</v>
+        <v>-10100</v>
       </c>
       <c r="I26" s="3">
-        <v>-9300</v>
+        <v>-13000</v>
       </c>
       <c r="J26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="K26" s="3">
         <v>18300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
         <v>-39400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>2300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="E27" s="3">
-        <v>-12000</v>
+        <v>-2900</v>
       </c>
       <c r="F27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-12200</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>-9000</v>
+        <v>-12400</v>
       </c>
       <c r="J27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K27" s="3">
         <v>17800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
         <v>-39400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>2300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,99 +1924,105 @@
         <v>800</v>
       </c>
       <c r="E32" s="3">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-17800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>62300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>38900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="E33" s="3">
-        <v>-12000</v>
+        <v>-2900</v>
       </c>
       <c r="F33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-12200</v>
+        <v>-9600</v>
       </c>
       <c r="I33" s="3">
-        <v>-9000</v>
+        <v>-12400</v>
       </c>
       <c r="J33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K33" s="3">
         <v>17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
         <v>-39400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>2300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="E35" s="3">
-        <v>-12000</v>
+        <v>-2900</v>
       </c>
       <c r="F35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-12200</v>
+        <v>-9600</v>
       </c>
       <c r="I35" s="3">
-        <v>-9000</v>
+        <v>-12400</v>
       </c>
       <c r="J35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K35" s="3">
         <v>17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
         <v>-39400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>2300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
-        <v>6800</v>
-      </c>
       <c r="F41" s="3">
-        <v>10200</v>
+        <v>6900</v>
       </c>
       <c r="G41" s="3">
-        <v>11800</v>
+        <v>10400</v>
       </c>
       <c r="H41" s="3">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3">
-        <v>23800</v>
+        <v>15700</v>
       </c>
       <c r="J41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="K41" s="3">
         <v>9500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14500</v>
+        <v>11400</v>
       </c>
       <c r="E43" s="3">
-        <v>18400</v>
+        <v>14800</v>
       </c>
       <c r="F43" s="3">
-        <v>12900</v>
+        <v>18700</v>
       </c>
       <c r="G43" s="3">
-        <v>10100</v>
+        <v>13100</v>
       </c>
       <c r="H43" s="3">
-        <v>13000</v>
+        <v>10300</v>
       </c>
       <c r="I43" s="3">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="J43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K43" s="3">
         <v>15500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5600</v>
-      </c>
       <c r="G44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="H44" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>37600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,40 +2436,43 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
-        <v>1300</v>
-      </c>
       <c r="F45" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23500</v>
+        <v>24400</v>
       </c>
       <c r="E46" s="3">
-        <v>31700</v>
+        <v>23900</v>
       </c>
       <c r="F46" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="G46" s="3">
-        <v>26000</v>
+        <v>32500</v>
       </c>
       <c r="H46" s="3">
-        <v>32600</v>
+        <v>26400</v>
       </c>
       <c r="I46" s="3">
-        <v>40800</v>
+        <v>33200</v>
       </c>
       <c r="J46" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K46" s="3">
         <v>29500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,13 +2542,16 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E47" s="3">
         <v>1300</v>
@@ -2458,20 +2563,20 @@
         <v>1300</v>
       </c>
       <c r="H47" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I47" s="3">
         <v>1500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1600</v>
       </c>
       <c r="J47" s="3">
         <v>1600</v>
       </c>
       <c r="K47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83800</v>
+        <v>61800</v>
       </c>
       <c r="E48" s="3">
+        <v>85200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>83300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>112800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>78300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>81300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K48" s="3">
         <v>81900</v>
       </c>
-      <c r="F48" s="3">
-        <v>110900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>77000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>80000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>82300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>81900</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>170600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33500</v>
+        <v>9500</v>
       </c>
       <c r="E49" s="3">
-        <v>32100</v>
+        <v>34100</v>
       </c>
       <c r="F49" s="3">
-        <v>61600</v>
+        <v>32600</v>
       </c>
       <c r="G49" s="3">
-        <v>30200</v>
+        <v>62600</v>
       </c>
       <c r="H49" s="3">
-        <v>28200</v>
+        <v>30700</v>
       </c>
       <c r="I49" s="3">
-        <v>27000</v>
+        <v>28700</v>
       </c>
       <c r="J49" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K49" s="3">
         <v>26200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>95600</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9800</v>
+        <v>8200</v>
       </c>
       <c r="E52" s="3">
-        <v>12800</v>
+        <v>10000</v>
       </c>
       <c r="F52" s="3">
-        <v>14100</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>15800</v>
+        <v>14400</v>
       </c>
       <c r="H52" s="3">
-        <v>14900</v>
+        <v>16100</v>
       </c>
       <c r="I52" s="3">
-        <v>9600</v>
+        <v>15100</v>
       </c>
       <c r="J52" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K52" s="3">
         <v>5800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>151900</v>
+        <v>105400</v>
       </c>
       <c r="E54" s="3">
+        <v>154400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>162500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>223600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>152900</v>
+      </c>
+      <c r="I54" s="3">
         <v>159800</v>
       </c>
-      <c r="F54" s="3">
-        <v>219900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>150400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>157200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>161200</v>
-      </c>
       <c r="J54" s="3">
+        <v>163900</v>
+      </c>
+      <c r="K54" s="3">
         <v>145100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,37 +3010,38 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
-        <v>5200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3500</v>
-      </c>
       <c r="H57" s="3">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="I57" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>2800</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
@@ -2930,38 +3061,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22600</v>
+        <v>29300</v>
       </c>
       <c r="E58" s="3">
-        <v>26400</v>
+        <v>23000</v>
       </c>
       <c r="F58" s="3">
-        <v>31700</v>
+        <v>26900</v>
       </c>
       <c r="G58" s="3">
-        <v>32700</v>
+        <v>32200</v>
       </c>
       <c r="H58" s="3">
-        <v>27100</v>
+        <v>33200</v>
       </c>
       <c r="I58" s="3">
-        <v>25200</v>
+        <v>27500</v>
       </c>
       <c r="J58" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K58" s="3">
         <v>18600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>65000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="E59" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="F59" s="3">
-        <v>30400</v>
+        <v>15100</v>
       </c>
       <c r="G59" s="3">
-        <v>13000</v>
+        <v>30900</v>
       </c>
       <c r="H59" s="3">
-        <v>17900</v>
+        <v>13200</v>
       </c>
       <c r="I59" s="3">
-        <v>13000</v>
+        <v>18200</v>
       </c>
       <c r="J59" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K59" s="3">
         <v>12600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>470700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>44100</v>
+        <v>50700</v>
       </c>
       <c r="E60" s="3">
-        <v>46500</v>
+        <v>44900</v>
       </c>
       <c r="F60" s="3">
-        <v>68400</v>
+        <v>47200</v>
       </c>
       <c r="G60" s="3">
-        <v>49200</v>
+        <v>69500</v>
       </c>
       <c r="H60" s="3">
-        <v>48300</v>
+        <v>50000</v>
       </c>
       <c r="I60" s="3">
-        <v>40900</v>
+        <v>49100</v>
       </c>
       <c r="J60" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K60" s="3">
         <v>34000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40300</v>
+        <v>37100</v>
       </c>
       <c r="E61" s="3">
-        <v>44500</v>
+        <v>40900</v>
       </c>
       <c r="F61" s="3">
-        <v>61700</v>
+        <v>45300</v>
       </c>
       <c r="G61" s="3">
-        <v>24200</v>
+        <v>62700</v>
       </c>
       <c r="H61" s="3">
-        <v>25400</v>
+        <v>24600</v>
       </c>
       <c r="I61" s="3">
-        <v>27500</v>
+        <v>25900</v>
       </c>
       <c r="J61" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K61" s="3">
         <v>111900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>136700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3300</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
+        <v>3400</v>
       </c>
       <c r="G62" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>141200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92800</v>
+        <v>82500</v>
       </c>
       <c r="E66" s="3">
-        <v>99700</v>
+        <v>94300</v>
       </c>
       <c r="F66" s="3">
-        <v>150300</v>
+        <v>101300</v>
       </c>
       <c r="G66" s="3">
-        <v>81100</v>
+        <v>152800</v>
       </c>
       <c r="H66" s="3">
-        <v>81600</v>
+        <v>82400</v>
       </c>
       <c r="I66" s="3">
-        <v>76900</v>
+        <v>83000</v>
       </c>
       <c r="J66" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K66" s="3">
         <v>154700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>183000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-76400</v>
+        <v>-116300</v>
       </c>
       <c r="E72" s="3">
-        <v>-73600</v>
+        <v>-77700</v>
       </c>
       <c r="F72" s="3">
-        <v>-61600</v>
+        <v>-74800</v>
       </c>
       <c r="G72" s="3">
-        <v>-59000</v>
+        <v>-62600</v>
       </c>
       <c r="H72" s="3">
-        <v>-49500</v>
+        <v>-59900</v>
       </c>
       <c r="I72" s="3">
-        <v>-37300</v>
+        <v>-50300</v>
       </c>
       <c r="J72" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-28200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59100</v>
+        <v>22900</v>
       </c>
       <c r="E76" s="3">
-        <v>60200</v>
+        <v>60100</v>
       </c>
       <c r="F76" s="3">
-        <v>69700</v>
+        <v>61200</v>
       </c>
       <c r="G76" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="H76" s="3">
-        <v>75500</v>
+        <v>70400</v>
       </c>
       <c r="I76" s="3">
-        <v>84300</v>
+        <v>76800</v>
       </c>
       <c r="J76" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-30300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-38600</v>
       </c>
       <c r="E81" s="3">
-        <v>-12000</v>
+        <v>-2900</v>
       </c>
       <c r="F81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-12200</v>
+        <v>-9600</v>
       </c>
       <c r="I81" s="3">
-        <v>-9000</v>
+        <v>-12400</v>
       </c>
       <c r="J81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K81" s="3">
         <v>17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
         <v>-39400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>2300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35100</v>
+        <v>35300</v>
       </c>
       <c r="E8" s="3">
-        <v>33000</v>
+        <v>33200</v>
       </c>
       <c r="F8" s="3">
-        <v>56800</v>
+        <v>57200</v>
       </c>
       <c r="G8" s="3">
-        <v>44000</v>
+        <v>44400</v>
       </c>
       <c r="H8" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="I8" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="J8" s="3">
-        <v>37300</v>
+        <v>37600</v>
       </c>
       <c r="K8" s="3">
         <v>36600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="E9" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="F9" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="G9" s="3">
-        <v>15900</v>
+        <v>16000</v>
       </c>
       <c r="H9" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="I9" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="J9" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="K9" s="3">
         <v>11300</v>
@@ -854,25 +854,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>20900</v>
+        <v>21100</v>
       </c>
       <c r="E10" s="3">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="F10" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="G10" s="3">
-        <v>28100</v>
+        <v>28300</v>
       </c>
       <c r="H10" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="3">
         <v>5500</v>
       </c>
       <c r="J10" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="K10" s="3">
         <v>25300</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46200</v>
+        <v>46600</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84900</v>
+        <v>85600</v>
       </c>
       <c r="E17" s="3">
-        <v>35100</v>
+        <v>35400</v>
       </c>
       <c r="F17" s="3">
-        <v>66100</v>
+        <v>66600</v>
       </c>
       <c r="G17" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="H17" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="I17" s="3">
-        <v>29000</v>
+        <v>29200</v>
       </c>
       <c r="J17" s="3">
-        <v>46700</v>
+        <v>47000</v>
       </c>
       <c r="K17" s="3">
         <v>35500</v>
@@ -1211,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-49900</v>
+        <v>-50300</v>
       </c>
       <c r="E18" s="3">
         <v>-2200</v>
@@ -1220,16 +1220,16 @@
         <v>-9400</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3">
         <v>-8500</v>
       </c>
       <c r="I18" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="J18" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="K18" s="3">
         <v>1200</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1444,13 +1444,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-50700</v>
+        <v>-51000</v>
       </c>
       <c r="E23" s="3">
         <v>-3000</v>
       </c>
       <c r="F23" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="G23" s="3">
         <v>-4200</v>
@@ -1459,10 +1459,10 @@
         <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="J23" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="K23" s="3">
         <v>19000</v>
@@ -1506,7 +1506,7 @@
         <v>1500</v>
       </c>
       <c r="G24" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50800</v>
+        <v>-51200</v>
       </c>
       <c r="E26" s="3">
         <v>-3200</v>
       </c>
       <c r="F26" s="3">
-        <v>-12800</v>
+        <v>-12900</v>
       </c>
       <c r="G26" s="3">
         <v>-2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I26" s="3">
-        <v>-13000</v>
+        <v>-13100</v>
       </c>
       <c r="J26" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="K26" s="3">
         <v>18300</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="E27" s="3">
         <v>-2900</v>
       </c>
       <c r="F27" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="G27" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H27" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="I27" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="J27" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="K27" s="3">
         <v>17800</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="E33" s="3">
         <v>-2900</v>
       </c>
       <c r="F33" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H33" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="I33" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="J33" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="K33" s="3">
         <v>17800</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="E35" s="3">
         <v>-2900</v>
       </c>
       <c r="F35" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H35" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="I35" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="J35" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="K35" s="3">
         <v>17800</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="E41" s="3">
         <v>2400</v>
       </c>
       <c r="F41" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="3">
         <v>10400</v>
       </c>
       <c r="H41" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="I41" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="J41" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="K41" s="3">
         <v>9500</v>
@@ -2342,22 +2342,22 @@
         <v>11400</v>
       </c>
       <c r="E43" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F43" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="G43" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="H43" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I43" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="J43" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K43" s="3">
         <v>15500</v>
@@ -2398,10 +2398,10 @@
         <v>5300</v>
       </c>
       <c r="F44" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="G44" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H44" s="3">
         <v>4200</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="E46" s="3">
-        <v>23900</v>
+        <v>24100</v>
       </c>
       <c r="F46" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="G46" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="H46" s="3">
-        <v>26400</v>
+        <v>26700</v>
       </c>
       <c r="I46" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="J46" s="3">
-        <v>41400</v>
+        <v>41800</v>
       </c>
       <c r="K46" s="3">
         <v>29500</v>
@@ -2566,7 +2566,7 @@
         <v>1300</v>
       </c>
       <c r="I47" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J47" s="3">
         <v>1600</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>61800</v>
+        <v>62200</v>
       </c>
       <c r="E48" s="3">
-        <v>85200</v>
+        <v>85800</v>
       </c>
       <c r="F48" s="3">
-        <v>83300</v>
+        <v>83900</v>
       </c>
       <c r="G48" s="3">
-        <v>112800</v>
+        <v>113600</v>
       </c>
       <c r="H48" s="3">
-        <v>78300</v>
+        <v>78900</v>
       </c>
       <c r="I48" s="3">
-        <v>81300</v>
+        <v>81900</v>
       </c>
       <c r="J48" s="3">
-        <v>83700</v>
+        <v>84400</v>
       </c>
       <c r="K48" s="3">
         <v>81900</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="3">
-        <v>34100</v>
+        <v>34300</v>
       </c>
       <c r="F49" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="G49" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="H49" s="3">
-        <v>30700</v>
+        <v>30900</v>
       </c>
       <c r="I49" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="J49" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="K49" s="3">
         <v>26200</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
         <v>10000</v>
       </c>
       <c r="F52" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="G52" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H52" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="I52" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J52" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K52" s="3">
         <v>5800</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>105400</v>
+        <v>106200</v>
       </c>
       <c r="E54" s="3">
-        <v>154400</v>
+        <v>155600</v>
       </c>
       <c r="F54" s="3">
-        <v>162500</v>
+        <v>163800</v>
       </c>
       <c r="G54" s="3">
-        <v>223600</v>
+        <v>225300</v>
       </c>
       <c r="H54" s="3">
-        <v>152900</v>
+        <v>154000</v>
       </c>
       <c r="I54" s="3">
-        <v>159800</v>
+        <v>161000</v>
       </c>
       <c r="J54" s="3">
-        <v>163900</v>
+        <v>165200</v>
       </c>
       <c r="K54" s="3">
         <v>145100</v>
@@ -3017,7 +3017,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E57" s="3">
         <v>6500</v>
@@ -3026,7 +3026,7 @@
         <v>5300</v>
       </c>
       <c r="G57" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H57" s="3">
         <v>3600</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29300</v>
+        <v>29500</v>
       </c>
       <c r="E58" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F58" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="G58" s="3">
-        <v>32200</v>
+        <v>32400</v>
       </c>
       <c r="H58" s="3">
-        <v>33200</v>
+        <v>33500</v>
       </c>
       <c r="I58" s="3">
-        <v>27500</v>
+        <v>27700</v>
       </c>
       <c r="J58" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="K58" s="3">
         <v>18600</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E59" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F59" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G59" s="3">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="H59" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="I59" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="J59" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K59" s="3">
         <v>12600</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50700</v>
+        <v>51100</v>
       </c>
       <c r="E60" s="3">
-        <v>44900</v>
+        <v>45200</v>
       </c>
       <c r="F60" s="3">
-        <v>47200</v>
+        <v>47600</v>
       </c>
       <c r="G60" s="3">
-        <v>69500</v>
+        <v>70100</v>
       </c>
       <c r="H60" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="I60" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="J60" s="3">
-        <v>41500</v>
+        <v>41900</v>
       </c>
       <c r="K60" s="3">
         <v>34000</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="E61" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="F61" s="3">
-        <v>45300</v>
+        <v>45600</v>
       </c>
       <c r="G61" s="3">
-        <v>62700</v>
+        <v>63200</v>
       </c>
       <c r="H61" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="I61" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="J61" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="K61" s="3">
         <v>111900</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>82500</v>
+        <v>83100</v>
       </c>
       <c r="E66" s="3">
-        <v>94300</v>
+        <v>95100</v>
       </c>
       <c r="F66" s="3">
-        <v>101300</v>
+        <v>102100</v>
       </c>
       <c r="G66" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="H66" s="3">
-        <v>82400</v>
+        <v>83100</v>
       </c>
       <c r="I66" s="3">
-        <v>83000</v>
+        <v>83600</v>
       </c>
       <c r="J66" s="3">
-        <v>78200</v>
+        <v>78800</v>
       </c>
       <c r="K66" s="3">
         <v>154700</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-116300</v>
+        <v>-117200</v>
       </c>
       <c r="E72" s="3">
-        <v>-77700</v>
+        <v>-78300</v>
       </c>
       <c r="F72" s="3">
-        <v>-74800</v>
+        <v>-75400</v>
       </c>
       <c r="G72" s="3">
-        <v>-62600</v>
+        <v>-63100</v>
       </c>
       <c r="H72" s="3">
-        <v>-59900</v>
+        <v>-60400</v>
       </c>
       <c r="I72" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="J72" s="3">
-        <v>-37900</v>
+        <v>-38200</v>
       </c>
       <c r="K72" s="3">
         <v>-28200</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22900</v>
+        <v>23100</v>
       </c>
       <c r="E76" s="3">
-        <v>60100</v>
+        <v>60500</v>
       </c>
       <c r="F76" s="3">
-        <v>61200</v>
+        <v>61700</v>
       </c>
       <c r="G76" s="3">
-        <v>70900</v>
+        <v>71400</v>
       </c>
       <c r="H76" s="3">
-        <v>70400</v>
+        <v>71000</v>
       </c>
       <c r="I76" s="3">
-        <v>76800</v>
+        <v>77400</v>
       </c>
       <c r="J76" s="3">
-        <v>85700</v>
+        <v>86400</v>
       </c>
       <c r="K76" s="3">
         <v>-9700</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38600</v>
+        <v>-38900</v>
       </c>
       <c r="E81" s="3">
         <v>-2900</v>
       </c>
       <c r="F81" s="3">
-        <v>-12200</v>
+        <v>-12300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H81" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="I81" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="J81" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="K81" s="3">
         <v>17800</v>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35300</v>
+        <v>33000</v>
       </c>
       <c r="E8" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="F8" s="3">
-        <v>57200</v>
+        <v>53400</v>
       </c>
       <c r="G8" s="3">
-        <v>44400</v>
+        <v>41500</v>
       </c>
       <c r="H8" s="3">
-        <v>26300</v>
+        <v>24600</v>
       </c>
       <c r="I8" s="3">
-        <v>14400</v>
+        <v>13400</v>
       </c>
       <c r="J8" s="3">
-        <v>37600</v>
+        <v>35100</v>
       </c>
       <c r="K8" s="3">
         <v>36600</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="E9" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="F9" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="G9" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="I9" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="J9" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="K9" s="3">
         <v>11300</v>
@@ -854,25 +854,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>21100</v>
+        <v>19700</v>
       </c>
       <c r="E10" s="3">
-        <v>19300</v>
+        <v>18000</v>
       </c>
       <c r="F10" s="3">
-        <v>37100</v>
+        <v>34600</v>
       </c>
       <c r="G10" s="3">
-        <v>28300</v>
+        <v>26500</v>
       </c>
       <c r="H10" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="I10" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="J10" s="3">
-        <v>25600</v>
+        <v>23900</v>
       </c>
       <c r="K10" s="3">
         <v>25300</v>
@@ -1034,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>46600</v>
+        <v>43500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>85600</v>
+        <v>80000</v>
       </c>
       <c r="E17" s="3">
-        <v>35400</v>
+        <v>33100</v>
       </c>
       <c r="F17" s="3">
-        <v>66600</v>
+        <v>62300</v>
       </c>
       <c r="G17" s="3">
-        <v>47700</v>
+        <v>44600</v>
       </c>
       <c r="H17" s="3">
-        <v>34800</v>
+        <v>32500</v>
       </c>
       <c r="I17" s="3">
-        <v>29200</v>
+        <v>27300</v>
       </c>
       <c r="J17" s="3">
-        <v>47000</v>
+        <v>43900</v>
       </c>
       <c r="K17" s="3">
         <v>35500</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-50300</v>
+        <v>-46900</v>
       </c>
       <c r="E18" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-8800</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="H18" s="3">
-        <v>-8500</v>
+        <v>-8000</v>
       </c>
       <c r="I18" s="3">
-        <v>-14800</v>
+        <v>-13900</v>
       </c>
       <c r="J18" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="K18" s="3">
         <v>1200</v>
@@ -1285,22 +1285,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="3">
-        <v>-6500</v>
+        <v>-6000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51000</v>
+        <v>-47700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="F23" s="3">
-        <v>-11400</v>
+        <v>-10700</v>
       </c>
       <c r="G23" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="I23" s="3">
-        <v>-15500</v>
+        <v>-14500</v>
       </c>
       <c r="J23" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="K23" s="3">
         <v>19000</v>
@@ -1503,19 +1503,19 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H24" s="3">
         <v>400</v>
       </c>
       <c r="I24" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="J24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51200</v>
+        <v>-47800</v>
       </c>
       <c r="E26" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-12900</v>
+        <v>-12000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="H26" s="3">
-        <v>-10200</v>
+        <v>-9500</v>
       </c>
       <c r="I26" s="3">
-        <v>-13100</v>
+        <v>-12200</v>
       </c>
       <c r="J26" s="3">
-        <v>-9600</v>
+        <v>-8900</v>
       </c>
       <c r="K26" s="3">
         <v>18300</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-38900</v>
+        <v>-36400</v>
       </c>
       <c r="E27" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F27" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="H27" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="I27" s="3">
-        <v>-12500</v>
+        <v>-11700</v>
       </c>
       <c r="J27" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="K27" s="3">
         <v>17800</v>
@@ -1921,22 +1921,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
-        <v>800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>900</v>
-      </c>
       <c r="H32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-38900</v>
+        <v>-36400</v>
       </c>
       <c r="E33" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F33" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="H33" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="I33" s="3">
-        <v>-12500</v>
+        <v>-11700</v>
       </c>
       <c r="J33" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="K33" s="3">
         <v>17800</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-38900</v>
+        <v>-36400</v>
       </c>
       <c r="E35" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F35" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="H35" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="I35" s="3">
-        <v>-12500</v>
+        <v>-11700</v>
       </c>
       <c r="J35" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="K35" s="3">
         <v>17800</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="E41" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F41" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G41" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="H41" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="I41" s="3">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="J41" s="3">
-        <v>24400</v>
+        <v>22800</v>
       </c>
       <c r="K41" s="3">
         <v>9500</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="E43" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="F43" s="3">
-        <v>18900</v>
+        <v>17600</v>
       </c>
       <c r="G43" s="3">
-        <v>13200</v>
+        <v>12300</v>
       </c>
       <c r="H43" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="I43" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="J43" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="K43" s="3">
         <v>15500</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="E44" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="F44" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="G44" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="H44" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="J44" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K44" s="3">
         <v>4600</v>
@@ -2448,13 +2448,13 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24600</v>
+        <v>23000</v>
       </c>
       <c r="E46" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="F46" s="3">
-        <v>32500</v>
+        <v>30400</v>
       </c>
       <c r="G46" s="3">
-        <v>32800</v>
+        <v>30600</v>
       </c>
       <c r="H46" s="3">
-        <v>26700</v>
+        <v>24900</v>
       </c>
       <c r="I46" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="J46" s="3">
-        <v>41800</v>
+        <v>39000</v>
       </c>
       <c r="K46" s="3">
         <v>29500</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J47" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K47" s="3">
         <v>1600</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>62200</v>
+        <v>58100</v>
       </c>
       <c r="E48" s="3">
-        <v>85800</v>
+        <v>80200</v>
       </c>
       <c r="F48" s="3">
-        <v>83900</v>
+        <v>78400</v>
       </c>
       <c r="G48" s="3">
-        <v>113600</v>
+        <v>106100</v>
       </c>
       <c r="H48" s="3">
-        <v>78900</v>
+        <v>73700</v>
       </c>
       <c r="I48" s="3">
-        <v>81900</v>
+        <v>76500</v>
       </c>
       <c r="J48" s="3">
-        <v>84400</v>
+        <v>78800</v>
       </c>
       <c r="K48" s="3">
         <v>81900</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="E49" s="3">
-        <v>34300</v>
+        <v>32100</v>
       </c>
       <c r="F49" s="3">
-        <v>32900</v>
+        <v>30700</v>
       </c>
       <c r="G49" s="3">
-        <v>63100</v>
+        <v>58900</v>
       </c>
       <c r="H49" s="3">
-        <v>30900</v>
+        <v>28900</v>
       </c>
       <c r="I49" s="3">
-        <v>28900</v>
+        <v>27000</v>
       </c>
       <c r="J49" s="3">
-        <v>27700</v>
+        <v>25800</v>
       </c>
       <c r="K49" s="3">
         <v>26200</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E52" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="F52" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="G52" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="H52" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="I52" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="J52" s="3">
-        <v>9800</v>
+        <v>9100</v>
       </c>
       <c r="K52" s="3">
         <v>5800</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106200</v>
+        <v>99200</v>
       </c>
       <c r="E54" s="3">
-        <v>155600</v>
+        <v>145300</v>
       </c>
       <c r="F54" s="3">
-        <v>163800</v>
+        <v>153000</v>
       </c>
       <c r="G54" s="3">
-        <v>225300</v>
+        <v>210500</v>
       </c>
       <c r="H54" s="3">
-        <v>154000</v>
+        <v>143900</v>
       </c>
       <c r="I54" s="3">
-        <v>161000</v>
+        <v>150400</v>
       </c>
       <c r="J54" s="3">
-        <v>165200</v>
+        <v>154300</v>
       </c>
       <c r="K54" s="3">
         <v>145100</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G57" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H57" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J57" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="E58" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="F58" s="3">
-        <v>27100</v>
+        <v>25300</v>
       </c>
       <c r="G58" s="3">
-        <v>32400</v>
+        <v>30300</v>
       </c>
       <c r="H58" s="3">
-        <v>33500</v>
+        <v>31300</v>
       </c>
       <c r="I58" s="3">
-        <v>27700</v>
+        <v>25900</v>
       </c>
       <c r="J58" s="3">
-        <v>25800</v>
+        <v>24100</v>
       </c>
       <c r="K58" s="3">
         <v>18600</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15700</v>
+        <v>14700</v>
       </c>
       <c r="E59" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="F59" s="3">
-        <v>15200</v>
+        <v>14200</v>
       </c>
       <c r="G59" s="3">
-        <v>31100</v>
+        <v>29100</v>
       </c>
       <c r="H59" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="I59" s="3">
-        <v>18400</v>
+        <v>17200</v>
       </c>
       <c r="J59" s="3">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="K59" s="3">
         <v>12600</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51100</v>
+        <v>47700</v>
       </c>
       <c r="E60" s="3">
-        <v>45200</v>
+        <v>42200</v>
       </c>
       <c r="F60" s="3">
-        <v>47600</v>
+        <v>44500</v>
       </c>
       <c r="G60" s="3">
-        <v>70100</v>
+        <v>65400</v>
       </c>
       <c r="H60" s="3">
-        <v>50400</v>
+        <v>47100</v>
       </c>
       <c r="I60" s="3">
-        <v>49500</v>
+        <v>46200</v>
       </c>
       <c r="J60" s="3">
-        <v>41900</v>
+        <v>39100</v>
       </c>
       <c r="K60" s="3">
         <v>34000</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37400</v>
+        <v>34900</v>
       </c>
       <c r="E61" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="F61" s="3">
-        <v>45600</v>
+        <v>42600</v>
       </c>
       <c r="G61" s="3">
-        <v>63200</v>
+        <v>59000</v>
       </c>
       <c r="H61" s="3">
-        <v>24800</v>
+        <v>23100</v>
       </c>
       <c r="I61" s="3">
-        <v>26100</v>
+        <v>24300</v>
       </c>
       <c r="J61" s="3">
-        <v>28200</v>
+        <v>26300</v>
       </c>
       <c r="K61" s="3">
         <v>111900</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2000</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>83100</v>
+        <v>77700</v>
       </c>
       <c r="E66" s="3">
-        <v>95100</v>
+        <v>88800</v>
       </c>
       <c r="F66" s="3">
-        <v>102100</v>
+        <v>95400</v>
       </c>
       <c r="G66" s="3">
-        <v>153900</v>
+        <v>143800</v>
       </c>
       <c r="H66" s="3">
-        <v>83100</v>
+        <v>77600</v>
       </c>
       <c r="I66" s="3">
-        <v>83600</v>
+        <v>78100</v>
       </c>
       <c r="J66" s="3">
-        <v>78800</v>
+        <v>73600</v>
       </c>
       <c r="K66" s="3">
         <v>154700</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-117200</v>
+        <v>-109500</v>
       </c>
       <c r="E72" s="3">
-        <v>-78300</v>
+        <v>-73100</v>
       </c>
       <c r="F72" s="3">
-        <v>-75400</v>
+        <v>-70400</v>
       </c>
       <c r="G72" s="3">
-        <v>-63100</v>
+        <v>-58900</v>
       </c>
       <c r="H72" s="3">
-        <v>-60400</v>
+        <v>-56400</v>
       </c>
       <c r="I72" s="3">
-        <v>-50700</v>
+        <v>-47400</v>
       </c>
       <c r="J72" s="3">
-        <v>-38200</v>
+        <v>-35700</v>
       </c>
       <c r="K72" s="3">
         <v>-28200</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23100</v>
+        <v>21600</v>
       </c>
       <c r="E76" s="3">
-        <v>60500</v>
+        <v>56500</v>
       </c>
       <c r="F76" s="3">
-        <v>61700</v>
+        <v>57600</v>
       </c>
       <c r="G76" s="3">
-        <v>71400</v>
+        <v>66700</v>
       </c>
       <c r="H76" s="3">
-        <v>71000</v>
+        <v>66300</v>
       </c>
       <c r="I76" s="3">
-        <v>77400</v>
+        <v>72300</v>
       </c>
       <c r="J76" s="3">
-        <v>86400</v>
+        <v>80700</v>
       </c>
       <c r="K76" s="3">
         <v>-9700</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-38900</v>
+        <v>-36400</v>
       </c>
       <c r="E81" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="F81" s="3">
-        <v>-12300</v>
+        <v>-11500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="H81" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="I81" s="3">
-        <v>-12500</v>
+        <v>-11700</v>
       </c>
       <c r="J81" s="3">
-        <v>-9200</v>
+        <v>-8600</v>
       </c>
       <c r="K81" s="3">
         <v>17800</v>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,242 +667,281 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="E8" s="3">
-        <v>31000</v>
+        <v>23500</v>
       </c>
       <c r="F8" s="3">
-        <v>53400</v>
+        <v>94300</v>
       </c>
       <c r="G8" s="3">
-        <v>41500</v>
+        <v>25000</v>
       </c>
       <c r="H8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K8" s="3">
         <v>24600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>13400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>35100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>36600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>58900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>27600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>56400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>27800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>50500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>23900</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13300</v>
+        <v>11400</v>
       </c>
       <c r="E9" s="3">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="F9" s="3">
-        <v>18800</v>
+        <v>54900</v>
       </c>
       <c r="G9" s="3">
-        <v>15000</v>
+        <v>13200</v>
       </c>
       <c r="H9" s="3">
+        <v>12900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>18600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K9" s="3">
         <v>10500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>8300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>11200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>11300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>9100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>8300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <v>10100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>8200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>9000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>19700</v>
+        <v>14600</v>
       </c>
       <c r="E10" s="3">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="F10" s="3">
-        <v>34600</v>
+        <v>39400</v>
       </c>
       <c r="G10" s="3">
-        <v>26500</v>
+        <v>11800</v>
       </c>
       <c r="H10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K10" s="3">
         <v>14000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>5100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>23900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>25300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>51000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>18500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>48100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>17700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>42300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>15000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +961,11 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1017,17 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1079,79 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>43500</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>45800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>65800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>10300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>9200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>7600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1203,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1230,135 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="E17" s="3">
-        <v>33100</v>
+        <v>22800</v>
       </c>
       <c r="F17" s="3">
-        <v>62300</v>
+        <v>190100</v>
       </c>
       <c r="G17" s="3">
-        <v>44600</v>
+        <v>79300</v>
       </c>
       <c r="H17" s="3">
+        <v>32800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>61700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K17" s="3">
         <v>32500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>27300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>43900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>35500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>-800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-1300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46900</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
-        <v>-2100</v>
+        <v>700</v>
       </c>
       <c r="F18" s="3">
-        <v>-8800</v>
+        <v>-95800</v>
       </c>
       <c r="G18" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-8000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>59700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>57800</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>50500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1378,73 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>17800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-62300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1355,38 +1466,47 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-6000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>50300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>13000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,138 +1534,165 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>28700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>74700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-47700</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-2800</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-10700</v>
+        <v>-99500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4000</v>
+        <v>-55000</v>
       </c>
       <c r="H23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-14500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>19000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>22300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-79300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>2500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>13300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="Q24" s="3">
         <v>-38400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1744,141 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-47800</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3000</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-12000</v>
+        <v>-97800</v>
       </c>
       <c r="G26" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-9500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-12200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>18300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-39400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
         <v>2300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-36400</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2700</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-11500</v>
+        <v>-85700</v>
       </c>
       <c r="G27" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-39400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
         <v>2300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1930,17 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1992,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +2054,17 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2116,141 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-17800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>62300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>38900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-36400</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2700</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11500</v>
+        <v>-85700</v>
       </c>
       <c r="G33" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-11700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-39400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
         <v>2300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2302,146 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-36400</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2700</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11500</v>
+        <v>-85700</v>
       </c>
       <c r="G35" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-11700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-39400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
         <v>2300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2461,11 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,47 +2485,50 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="E41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>9500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2541,17 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,47 +2603,56 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10700</v>
+        <v>6500</v>
       </c>
       <c r="E43" s="3">
-        <v>13900</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
-        <v>17600</v>
+        <v>6400</v>
       </c>
       <c r="G43" s="3">
-        <v>12300</v>
+        <v>10600</v>
       </c>
       <c r="H43" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K43" s="3">
         <v>9700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>12500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>12400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>15500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>25800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,47 +2665,56 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4900</v>
       </c>
-      <c r="G44" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>37600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,49 +2727,58 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2492,47 +2789,56 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23000</v>
+        <v>14600</v>
       </c>
       <c r="E46" s="3">
-        <v>22500</v>
+        <v>14100</v>
       </c>
       <c r="F46" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>22800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J46" s="3">
         <v>30400</v>
       </c>
-      <c r="G46" s="3">
-        <v>30600</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>24900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>31200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>39000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>29500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>30000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,47 +2851,56 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>700</v>
+      </c>
+      <c r="G47" s="3">
         <v>1300</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1200</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
       </c>
       <c r="I47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,47 +2913,56 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58100</v>
+        <v>52800</v>
       </c>
       <c r="E48" s="3">
-        <v>80200</v>
+        <v>54500</v>
       </c>
       <c r="F48" s="3">
-        <v>78400</v>
+        <v>52400</v>
       </c>
       <c r="G48" s="3">
-        <v>106100</v>
+        <v>57600</v>
       </c>
       <c r="H48" s="3">
+        <v>79500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>77700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K48" s="3">
         <v>73700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>76500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>78800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>81900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>170600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,47 +2975,56 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9000</v>
+        <v>5700</v>
       </c>
       <c r="E49" s="3">
-        <v>32100</v>
+        <v>5600</v>
       </c>
       <c r="F49" s="3">
-        <v>30700</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
-        <v>58900</v>
+        <v>8900</v>
       </c>
       <c r="H49" s="3">
+        <v>31800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>30400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K49" s="3">
         <v>28900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>27000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>25800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>26200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>95600</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,8 +3037,17 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +3099,17 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,47 +3161,56 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>9200</v>
       </c>
       <c r="E52" s="3">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="F52" s="3">
-        <v>12300</v>
+        <v>9100</v>
       </c>
       <c r="G52" s="3">
-        <v>13500</v>
+        <v>7700</v>
       </c>
       <c r="H52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>14200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>9100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>36500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3223,17 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,47 +3285,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>99200</v>
+        <v>83200</v>
       </c>
       <c r="E54" s="3">
-        <v>145300</v>
+        <v>83500</v>
       </c>
       <c r="F54" s="3">
-        <v>153000</v>
+        <v>84300</v>
       </c>
       <c r="G54" s="3">
-        <v>210500</v>
+        <v>98300</v>
       </c>
       <c r="H54" s="3">
+        <v>144000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>151600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>208600</v>
+      </c>
+      <c r="K54" s="3">
         <v>143900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>150400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>154300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>145100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>155000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3347,17 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3377,11 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,47 +3401,50 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G57" s="3">
         <v>5500</v>
       </c>
-      <c r="E57" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6100</v>
-      </c>
       <c r="H57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,47 +3457,56 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27500</v>
+        <v>28700</v>
       </c>
       <c r="E58" s="3">
-        <v>21600</v>
+        <v>27900</v>
       </c>
       <c r="F58" s="3">
-        <v>25300</v>
+        <v>26900</v>
       </c>
       <c r="G58" s="3">
-        <v>30300</v>
+        <v>27300</v>
       </c>
       <c r="H58" s="3">
+        <v>21400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>25100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>30000</v>
+      </c>
+      <c r="K58" s="3">
         <v>31300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>25900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>24100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>18600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>65000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,47 +3519,56 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14700</v>
+        <v>41700</v>
       </c>
       <c r="E59" s="3">
-        <v>14500</v>
+        <v>44500</v>
       </c>
       <c r="F59" s="3">
-        <v>14200</v>
+        <v>47600</v>
       </c>
       <c r="G59" s="3">
-        <v>29100</v>
+        <v>33300</v>
       </c>
       <c r="H59" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K59" s="3">
         <v>12400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>17200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>12500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>12600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>470700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,47 +3581,56 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47700</v>
+        <v>76800</v>
       </c>
       <c r="E60" s="3">
-        <v>42200</v>
+        <v>77700</v>
       </c>
       <c r="F60" s="3">
-        <v>44500</v>
+        <v>79100</v>
       </c>
       <c r="G60" s="3">
-        <v>65400</v>
+        <v>66000</v>
       </c>
       <c r="H60" s="3">
+        <v>52800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>44100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K60" s="3">
         <v>47100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>46200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>39100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>34000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>37600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,47 +3643,56 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34900</v>
+        <v>32700</v>
       </c>
       <c r="E61" s="3">
-        <v>38500</v>
+        <v>32400</v>
       </c>
       <c r="F61" s="3">
-        <v>42600</v>
+        <v>32300</v>
       </c>
       <c r="G61" s="3">
-        <v>59000</v>
+        <v>34600</v>
       </c>
       <c r="H61" s="3">
+        <v>38200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>42200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K61" s="3">
         <v>23100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>24300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>26300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>111900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>136700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,47 +3705,56 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9600</v>
-      </c>
       <c r="H62" s="3">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="I62" s="3">
-        <v>1800</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
-        <v>1900</v>
+        <v>9500</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
       </c>
       <c r="L62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O62" s="3">
         <v>141200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3767,17 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3829,17 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3891,17 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,47 +3953,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>77700</v>
+        <v>105200</v>
       </c>
       <c r="E66" s="3">
-        <v>88800</v>
+        <v>105900</v>
       </c>
       <c r="F66" s="3">
-        <v>95400</v>
+        <v>107100</v>
       </c>
       <c r="G66" s="3">
-        <v>143800</v>
+        <v>95700</v>
       </c>
       <c r="H66" s="3">
+        <v>98000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>94500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K66" s="3">
         <v>77600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>78100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>73600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>154700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>183000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +4015,17 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +4045,11 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +4101,17 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +4163,17 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4225,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,47 +4287,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-109500</v>
+        <v>-155500</v>
       </c>
       <c r="E72" s="3">
-        <v>-73100</v>
+        <v>-155500</v>
       </c>
       <c r="F72" s="3">
-        <v>-70400</v>
+        <v>-155500</v>
       </c>
       <c r="G72" s="3">
-        <v>-58900</v>
+        <v>-69800</v>
       </c>
       <c r="H72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-56400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-47400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-35700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-28200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-46400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4349,17 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4411,17 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4473,17 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,47 +4535,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21600</v>
+        <v>-22100</v>
       </c>
       <c r="E76" s="3">
-        <v>56500</v>
+        <v>-22400</v>
       </c>
       <c r="F76" s="3">
-        <v>57600</v>
+        <v>-22900</v>
       </c>
       <c r="G76" s="3">
-        <v>66700</v>
+        <v>2600</v>
       </c>
       <c r="H76" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>57100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>66100</v>
+      </c>
+      <c r="K76" s="3">
         <v>66300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>72300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>80700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-30300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4597,17 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4659,146 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-36400</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2700</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11500</v>
+        <v>-85700</v>
       </c>
       <c r="G81" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-11700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-39400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3">
         <v>2300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4818,11 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4874,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4936,17 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4998,17 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +5060,17 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +5122,17 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +5184,17 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +5246,17 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5276,11 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5332,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5394,17 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5456,17 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5518,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5548,11 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5604,17 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5666,17 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5728,17 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5790,17 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5852,17 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5914,17 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5974,15 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -760,25 +760,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>26000</v>
+        <v>24800</v>
       </c>
       <c r="E8" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="F8" s="3">
-        <v>94300</v>
+        <v>89900</v>
       </c>
       <c r="G8" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="H8" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="I8" s="3">
-        <v>53000</v>
+        <v>50500</v>
       </c>
       <c r="J8" s="3">
-        <v>41100</v>
+        <v>39200</v>
       </c>
       <c r="K8" s="3">
         <v>24600</v>
@@ -822,25 +822,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="E9" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="3">
-        <v>54900</v>
+        <v>52400</v>
       </c>
       <c r="G9" s="3">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="H9" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="I9" s="3">
-        <v>18600</v>
+        <v>17800</v>
       </c>
       <c r="J9" s="3">
-        <v>14800</v>
+        <v>14100</v>
       </c>
       <c r="K9" s="3">
         <v>10500</v>
@@ -884,25 +884,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="E10" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="F10" s="3">
-        <v>39400</v>
+        <v>37500</v>
       </c>
       <c r="G10" s="3">
-        <v>11800</v>
+        <v>11200</v>
       </c>
       <c r="H10" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="I10" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="J10" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="K10" s="3">
         <v>14000</v>
@@ -1100,16 +1100,16 @@
         <v>3</v>
       </c>
       <c r="F14" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="G14" s="3">
-        <v>65800</v>
+        <v>62700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1239,25 +1239,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="E17" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="F17" s="3">
-        <v>190100</v>
+        <v>181200</v>
       </c>
       <c r="G17" s="3">
-        <v>79300</v>
+        <v>75600</v>
       </c>
       <c r="H17" s="3">
-        <v>32800</v>
+        <v>31200</v>
       </c>
       <c r="I17" s="3">
-        <v>61700</v>
+        <v>58800</v>
       </c>
       <c r="J17" s="3">
-        <v>44200</v>
+        <v>42100</v>
       </c>
       <c r="K17" s="3">
         <v>32500</v>
@@ -1301,25 +1301,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E18" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F18" s="3">
-        <v>-95800</v>
+        <v>-91300</v>
       </c>
       <c r="G18" s="3">
-        <v>-54300</v>
+        <v>-51800</v>
       </c>
       <c r="H18" s="3">
-        <v>-13000</v>
+        <v>-12400</v>
       </c>
       <c r="I18" s="3">
-        <v>-8700</v>
+        <v>-8300</v>
       </c>
       <c r="J18" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K18" s="3">
         <v>-8000</v>
@@ -1387,22 +1387,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J20" s="3">
         <v>-800</v>
@@ -1576,22 +1576,22 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-99500</v>
+        <v>-94800</v>
       </c>
       <c r="G23" s="3">
-        <v>-55000</v>
+        <v>-52400</v>
       </c>
       <c r="H23" s="3">
-        <v>-13800</v>
+        <v>-13100</v>
       </c>
       <c r="I23" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="J23" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="K23" s="3">
         <v>-9100</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1650,7 +1650,7 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J24" s="3">
         <v>-1300</v>
@@ -1765,19 +1765,19 @@
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-97800</v>
+        <v>-93200</v>
       </c>
       <c r="G26" s="3">
-        <v>-55100</v>
+        <v>-52500</v>
       </c>
       <c r="H26" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="I26" s="3">
-        <v>-11900</v>
+        <v>-11400</v>
       </c>
       <c r="J26" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K26" s="3">
         <v>-9500</v>
@@ -1824,22 +1824,22 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-85700</v>
+        <v>-81700</v>
       </c>
       <c r="G27" s="3">
-        <v>-44800</v>
+        <v>-42700</v>
       </c>
       <c r="H27" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>-10800</v>
       </c>
       <c r="J27" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K27" s="3">
         <v>-9100</v>
@@ -2131,22 +2131,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J32" s="3">
         <v>800</v>
@@ -2196,22 +2196,22 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-85700</v>
+        <v>-81700</v>
       </c>
       <c r="G33" s="3">
-        <v>-44800</v>
+        <v>-42700</v>
       </c>
       <c r="H33" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>-10800</v>
       </c>
       <c r="J33" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K33" s="3">
         <v>-9100</v>
@@ -2320,22 +2320,22 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-85700</v>
+        <v>-81700</v>
       </c>
       <c r="G35" s="3">
-        <v>-44800</v>
+        <v>-42700</v>
       </c>
       <c r="H35" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>-10800</v>
       </c>
       <c r="J35" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K35" s="3">
         <v>-9100</v>
@@ -2494,25 +2494,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E41" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F41" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="G41" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H41" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I41" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="J41" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>11300</v>
@@ -2618,25 +2618,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E43" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="F43" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G43" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="H43" s="3">
-        <v>13800</v>
+        <v>13100</v>
       </c>
       <c r="I43" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="J43" s="3">
-        <v>12200</v>
+        <v>11700</v>
       </c>
       <c r="K43" s="3">
         <v>9700</v>
@@ -2680,25 +2680,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F44" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="G44" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="H44" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I44" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J44" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="K44" s="3">
         <v>3900</v>
@@ -2754,13 +2754,13 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2804,25 +2804,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="E46" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="F46" s="3">
-        <v>16600</v>
+        <v>15800</v>
       </c>
       <c r="G46" s="3">
-        <v>22800</v>
+        <v>21700</v>
       </c>
       <c r="H46" s="3">
-        <v>22300</v>
+        <v>21200</v>
       </c>
       <c r="I46" s="3">
-        <v>30100</v>
+        <v>28700</v>
       </c>
       <c r="J46" s="3">
-        <v>30400</v>
+        <v>28900</v>
       </c>
       <c r="K46" s="3">
         <v>24900</v>
@@ -2928,25 +2928,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="E48" s="3">
-        <v>54500</v>
+        <v>51900</v>
       </c>
       <c r="F48" s="3">
-        <v>52400</v>
+        <v>49900</v>
       </c>
       <c r="G48" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="H48" s="3">
-        <v>79500</v>
+        <v>75700</v>
       </c>
       <c r="I48" s="3">
-        <v>77700</v>
+        <v>74000</v>
       </c>
       <c r="J48" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="K48" s="3">
         <v>73700</v>
@@ -2990,25 +2990,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="F49" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G49" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="H49" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="I49" s="3">
-        <v>30400</v>
+        <v>29000</v>
       </c>
       <c r="J49" s="3">
-        <v>58400</v>
+        <v>55700</v>
       </c>
       <c r="K49" s="3">
         <v>28900</v>
@@ -3176,25 +3176,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="F52" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="G52" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="H52" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="I52" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="J52" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="K52" s="3">
         <v>15200</v>
@@ -3300,25 +3300,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83200</v>
+        <v>79300</v>
       </c>
       <c r="E54" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="F54" s="3">
-        <v>84300</v>
+        <v>80300</v>
       </c>
       <c r="G54" s="3">
-        <v>98300</v>
+        <v>93700</v>
       </c>
       <c r="H54" s="3">
-        <v>144000</v>
+        <v>137300</v>
       </c>
       <c r="I54" s="3">
-        <v>151600</v>
+        <v>144500</v>
       </c>
       <c r="J54" s="3">
-        <v>208600</v>
+        <v>198800</v>
       </c>
       <c r="K54" s="3">
         <v>143900</v>
@@ -3410,25 +3410,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E57" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G57" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="H57" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="I57" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="J57" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
@@ -3472,25 +3472,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28700</v>
+        <v>27300</v>
       </c>
       <c r="E58" s="3">
-        <v>27900</v>
+        <v>26600</v>
       </c>
       <c r="F58" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="G58" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="H58" s="3">
-        <v>21400</v>
+        <v>20400</v>
       </c>
       <c r="I58" s="3">
-        <v>25100</v>
+        <v>23900</v>
       </c>
       <c r="J58" s="3">
-        <v>30000</v>
+        <v>28600</v>
       </c>
       <c r="K58" s="3">
         <v>31300</v>
@@ -3534,25 +3534,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41700</v>
+        <v>39700</v>
       </c>
       <c r="E59" s="3">
-        <v>44500</v>
+        <v>42400</v>
       </c>
       <c r="F59" s="3">
-        <v>47600</v>
+        <v>45400</v>
       </c>
       <c r="G59" s="3">
-        <v>33300</v>
+        <v>31700</v>
       </c>
       <c r="H59" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="I59" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="J59" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="K59" s="3">
         <v>12400</v>
@@ -3596,25 +3596,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>76800</v>
+        <v>73200</v>
       </c>
       <c r="E60" s="3">
-        <v>77700</v>
+        <v>74000</v>
       </c>
       <c r="F60" s="3">
-        <v>79100</v>
+        <v>75400</v>
       </c>
       <c r="G60" s="3">
-        <v>66000</v>
+        <v>63000</v>
       </c>
       <c r="H60" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="I60" s="3">
-        <v>44100</v>
+        <v>42000</v>
       </c>
       <c r="J60" s="3">
-        <v>64800</v>
+        <v>61800</v>
       </c>
       <c r="K60" s="3">
         <v>47100</v>
@@ -3658,25 +3658,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="E61" s="3">
-        <v>32400</v>
+        <v>30900</v>
       </c>
       <c r="F61" s="3">
-        <v>32300</v>
+        <v>30800</v>
       </c>
       <c r="G61" s="3">
-        <v>34600</v>
+        <v>33000</v>
       </c>
       <c r="H61" s="3">
-        <v>38200</v>
+        <v>36400</v>
       </c>
       <c r="I61" s="3">
-        <v>42200</v>
+        <v>40200</v>
       </c>
       <c r="J61" s="3">
-        <v>58500</v>
+        <v>55800</v>
       </c>
       <c r="K61" s="3">
         <v>23100</v>
@@ -3729,16 +3729,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J62" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="K62" s="3">
         <v>1900</v>
@@ -3968,25 +3968,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="E66" s="3">
-        <v>105900</v>
+        <v>100900</v>
       </c>
       <c r="F66" s="3">
-        <v>107100</v>
+        <v>102100</v>
       </c>
       <c r="G66" s="3">
-        <v>95700</v>
+        <v>91200</v>
       </c>
       <c r="H66" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="I66" s="3">
-        <v>94500</v>
+        <v>90100</v>
       </c>
       <c r="J66" s="3">
-        <v>142500</v>
+        <v>135800</v>
       </c>
       <c r="K66" s="3">
         <v>77600</v>
@@ -4302,25 +4302,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-155500</v>
+        <v>-148200</v>
       </c>
       <c r="E72" s="3">
-        <v>-155500</v>
+        <v>-148200</v>
       </c>
       <c r="F72" s="3">
-        <v>-155500</v>
+        <v>-148200</v>
       </c>
       <c r="G72" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="H72" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="I72" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="J72" s="3">
-        <v>-58400</v>
+        <v>-55700</v>
       </c>
       <c r="K72" s="3">
         <v>-56400</v>
@@ -4550,25 +4550,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-22100</v>
+        <v>-21000</v>
       </c>
       <c r="E76" s="3">
-        <v>-22400</v>
+        <v>-21300</v>
       </c>
       <c r="F76" s="3">
-        <v>-22900</v>
+        <v>-21800</v>
       </c>
       <c r="G76" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H76" s="3">
-        <v>46000</v>
+        <v>43900</v>
       </c>
       <c r="I76" s="3">
-        <v>57100</v>
+        <v>54400</v>
       </c>
       <c r="J76" s="3">
-        <v>66100</v>
+        <v>63000</v>
       </c>
       <c r="K76" s="3">
         <v>66300</v>
@@ -4744,22 +4744,22 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-85700</v>
+        <v>-81700</v>
       </c>
       <c r="G81" s="3">
-        <v>-44800</v>
+        <v>-42700</v>
       </c>
       <c r="H81" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>-10800</v>
       </c>
       <c r="J81" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K81" s="3">
         <v>-9100</v>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="E8" s="3">
-        <v>22400</v>
+        <v>25500</v>
       </c>
       <c r="F8" s="3">
-        <v>89900</v>
+        <v>23100</v>
       </c>
       <c r="G8" s="3">
-        <v>23800</v>
+        <v>92700</v>
       </c>
       <c r="H8" s="3">
-        <v>18800</v>
+        <v>24600</v>
       </c>
       <c r="I8" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>39200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>24600</v>
+      </c>
+      <c r="M8" s="3">
+        <v>13400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>35100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>36600</v>
+      </c>
+      <c r="P8" s="3">
+        <v>58900</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>27600</v>
+      </c>
+      <c r="R8" s="3">
+        <v>56400</v>
+      </c>
+      <c r="S8" s="3">
+        <v>27800</v>
+      </c>
+      <c r="T8" s="3">
         <v>50500</v>
       </c>
-      <c r="J8" s="3">
-        <v>39200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>24600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>13400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>35100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>36600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>58900</v>
-      </c>
-      <c r="P8" s="3">
-        <v>27600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>56400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>27800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>50500</v>
-      </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>23900</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="E9" s="3">
-        <v>10000</v>
+        <v>11200</v>
       </c>
       <c r="F9" s="3">
-        <v>52400</v>
+        <v>10300</v>
       </c>
       <c r="G9" s="3">
-        <v>12600</v>
+        <v>54000</v>
       </c>
       <c r="H9" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="I9" s="3">
-        <v>17800</v>
+        <v>12700</v>
       </c>
       <c r="J9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="K9" s="3">
         <v>14100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13900</v>
+        <v>12400</v>
       </c>
       <c r="E10" s="3">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="F10" s="3">
-        <v>37500</v>
+        <v>12800</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>38700</v>
       </c>
       <c r="H10" s="3">
-        <v>6500</v>
+        <v>11600</v>
       </c>
       <c r="I10" s="3">
-        <v>32700</v>
+        <v>6700</v>
       </c>
       <c r="J10" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K10" s="3">
         <v>25000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>14000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>25300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>48100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>17700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>15000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,31 +1105,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>43700</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>62700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>45100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>64700</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1120,38 +1140,41 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>10300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>9200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
         <v>7600</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,61 +1259,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23800</v>
+        <v>26900</v>
       </c>
       <c r="E17" s="3">
-        <v>21700</v>
+        <v>24600</v>
       </c>
       <c r="F17" s="3">
-        <v>181200</v>
+        <v>22400</v>
       </c>
       <c r="G17" s="3">
-        <v>75600</v>
+        <v>187000</v>
       </c>
       <c r="H17" s="3">
-        <v>31200</v>
+        <v>78000</v>
       </c>
       <c r="I17" s="3">
-        <v>58800</v>
+        <v>32200</v>
       </c>
       <c r="J17" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K17" s="3">
         <v>42100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>35500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3">
         <v>-1300</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1295,70 +1322,76 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>900</v>
+        <v>-2900</v>
       </c>
       <c r="E18" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="3">
-        <v>-91300</v>
+        <v>700</v>
       </c>
       <c r="G18" s="3">
-        <v>-51800</v>
+        <v>-94200</v>
       </c>
       <c r="H18" s="3">
-        <v>-12400</v>
+        <v>-53400</v>
       </c>
       <c r="I18" s="3">
-        <v>-8300</v>
+        <v>-12800</v>
       </c>
       <c r="J18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>59700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>57800</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>50500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1200</v>
+        <v>-5300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3500</v>
-      </c>
       <c r="G20" s="3">
-        <v>-600</v>
+        <v>-3600</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1700</v>
+        <v>-700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>-62300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>-38900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1475,38 +1512,41 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-6000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>50300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>13000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1543,156 +1583,165 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>28700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>74700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-8300</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-94800</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-52400</v>
+        <v>-97900</v>
       </c>
       <c r="H23" s="3">
-        <v>-13100</v>
+        <v>-54100</v>
       </c>
       <c r="I23" s="3">
-        <v>-10100</v>
+        <v>-13500</v>
       </c>
       <c r="J23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>19000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>22300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-79300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-38400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-93200</v>
-      </c>
       <c r="G26" s="3">
-        <v>-52500</v>
+        <v>-96200</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>-54200</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
+        <v>-13700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>18300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
         <v>-39400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>2300</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
       <c r="F27" s="3">
-        <v>-81700</v>
+        <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-42700</v>
+        <v>-84300</v>
       </c>
       <c r="H27" s="3">
-        <v>-12100</v>
+        <v>-44100</v>
       </c>
       <c r="I27" s="3">
-        <v>-10800</v>
+        <v>-12500</v>
       </c>
       <c r="J27" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>17800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3">
         <v>-39400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
         <v>2300</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1200</v>
+        <v>5300</v>
       </c>
       <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>3500</v>
-      </c>
       <c r="G32" s="3">
-        <v>600</v>
+        <v>3600</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="J32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>62300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>38900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
       <c r="F33" s="3">
-        <v>-81700</v>
+        <v>-500</v>
       </c>
       <c r="G33" s="3">
-        <v>-42700</v>
+        <v>-84300</v>
       </c>
       <c r="H33" s="3">
-        <v>-12100</v>
+        <v>-44100</v>
       </c>
       <c r="I33" s="3">
-        <v>-10800</v>
+        <v>-12500</v>
       </c>
       <c r="J33" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>17800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3">
         <v>-39400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3">
         <v>2300</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
       <c r="F35" s="3">
-        <v>-81700</v>
+        <v>-500</v>
       </c>
       <c r="G35" s="3">
-        <v>-42700</v>
+        <v>-84300</v>
       </c>
       <c r="H35" s="3">
-        <v>-12100</v>
+        <v>-44100</v>
       </c>
       <c r="I35" s="3">
-        <v>-10800</v>
+        <v>-12500</v>
       </c>
       <c r="J35" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>17800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3">
         <v>-39400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
         <v>2300</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,50 +2574,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E41" s="3">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="F41" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="G41" s="3">
-        <v>6600</v>
+        <v>5600</v>
       </c>
       <c r="H41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
-        <v>6200</v>
-      </c>
       <c r="J41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2550,8 +2637,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,50 +2702,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="E43" s="3">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="F43" s="3">
-        <v>6100</v>
+        <v>5400</v>
       </c>
       <c r="G43" s="3">
-        <v>10100</v>
+        <v>6300</v>
       </c>
       <c r="H43" s="3">
-        <v>13100</v>
+        <v>10400</v>
       </c>
       <c r="I43" s="3">
-        <v>16700</v>
+        <v>13500</v>
       </c>
       <c r="J43" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25800</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2674,50 +2767,53 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>37600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2751,37 +2850,37 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>1200</v>
-      </c>
       <c r="I45" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2798,50 +2897,53 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="E46" s="3">
-        <v>13400</v>
+        <v>14300</v>
       </c>
       <c r="F46" s="3">
-        <v>15800</v>
+        <v>13800</v>
       </c>
       <c r="G46" s="3">
-        <v>21700</v>
+        <v>16300</v>
       </c>
       <c r="H46" s="3">
-        <v>21200</v>
+        <v>22400</v>
       </c>
       <c r="I46" s="3">
-        <v>28700</v>
+        <v>21900</v>
       </c>
       <c r="J46" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K46" s="3">
         <v>28900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2860,25 +2962,28 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
         <v>800</v>
       </c>
       <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
         <v>700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1200</v>
       </c>
       <c r="I47" s="3">
         <v>1200</v>
@@ -2890,20 +2995,20 @@
         <v>1200</v>
       </c>
       <c r="L47" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="M47" s="3">
         <v>1500</v>
       </c>
       <c r="N47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,50 +3027,53 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="E48" s="3">
-        <v>51900</v>
+        <v>52000</v>
       </c>
       <c r="F48" s="3">
-        <v>49900</v>
+        <v>53600</v>
       </c>
       <c r="G48" s="3">
-        <v>54900</v>
+        <v>51500</v>
       </c>
       <c r="H48" s="3">
-        <v>75700</v>
+        <v>56700</v>
       </c>
       <c r="I48" s="3">
-        <v>74000</v>
+        <v>78100</v>
       </c>
       <c r="J48" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K48" s="3">
         <v>100300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>78800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>81900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>170600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2984,50 +3092,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="E49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
-        <v>5200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>8500</v>
-      </c>
       <c r="H49" s="3">
-        <v>30300</v>
+        <v>8700</v>
       </c>
       <c r="I49" s="3">
-        <v>29000</v>
+        <v>31300</v>
       </c>
       <c r="J49" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K49" s="3">
         <v>55700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>95600</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,8 +3157,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,50 +3287,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8800</v>
+        <v>9600</v>
       </c>
       <c r="E52" s="3">
-        <v>8100</v>
+        <v>9100</v>
       </c>
       <c r="F52" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="G52" s="3">
-        <v>7300</v>
+        <v>9000</v>
       </c>
       <c r="H52" s="3">
-        <v>8900</v>
+        <v>7600</v>
       </c>
       <c r="I52" s="3">
-        <v>11600</v>
+        <v>9100</v>
       </c>
       <c r="J52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K52" s="3">
         <v>12800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>36500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,50 +3417,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79300</v>
+        <v>82200</v>
       </c>
       <c r="E54" s="3">
-        <v>79600</v>
+        <v>81800</v>
       </c>
       <c r="F54" s="3">
-        <v>80300</v>
+        <v>82100</v>
       </c>
       <c r="G54" s="3">
-        <v>93700</v>
+        <v>82900</v>
       </c>
       <c r="H54" s="3">
-        <v>137300</v>
+        <v>96700</v>
       </c>
       <c r="I54" s="3">
-        <v>144500</v>
+        <v>141600</v>
       </c>
       <c r="J54" s="3">
+        <v>149100</v>
+      </c>
+      <c r="K54" s="3">
         <v>198800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>154300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3482,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,49 +3534,50 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6200</v>
+        <v>6900</v>
       </c>
       <c r="E57" s="3">
-        <v>5100</v>
+        <v>6400</v>
       </c>
       <c r="F57" s="3">
-        <v>4400</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="H57" s="3">
-        <v>5800</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
       </c>
       <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
+      <c r="P57" s="3">
+        <v>2800</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
@@ -3466,50 +3597,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27300</v>
+        <v>30100</v>
       </c>
       <c r="E58" s="3">
-        <v>26600</v>
+        <v>28200</v>
       </c>
       <c r="F58" s="3">
-        <v>25700</v>
+        <v>27400</v>
       </c>
       <c r="G58" s="3">
-        <v>26000</v>
+        <v>26500</v>
       </c>
       <c r="H58" s="3">
-        <v>20400</v>
+        <v>26800</v>
       </c>
       <c r="I58" s="3">
-        <v>23900</v>
+        <v>21100</v>
       </c>
       <c r="J58" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K58" s="3">
         <v>28600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>31300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>65000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3528,50 +3662,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>39700</v>
+        <v>31700</v>
       </c>
       <c r="E59" s="3">
-        <v>42400</v>
+        <v>41000</v>
       </c>
       <c r="F59" s="3">
-        <v>45400</v>
+        <v>43700</v>
       </c>
       <c r="G59" s="3">
-        <v>31700</v>
+        <v>46800</v>
       </c>
       <c r="H59" s="3">
-        <v>24200</v>
+        <v>32700</v>
       </c>
       <c r="I59" s="3">
-        <v>13400</v>
+        <v>25000</v>
       </c>
       <c r="J59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K59" s="3">
         <v>27500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>470700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,50 +3727,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73200</v>
+        <v>68700</v>
       </c>
       <c r="E60" s="3">
-        <v>74000</v>
+        <v>75600</v>
       </c>
       <c r="F60" s="3">
-        <v>75400</v>
+        <v>76400</v>
       </c>
       <c r="G60" s="3">
-        <v>63000</v>
+        <v>77800</v>
       </c>
       <c r="H60" s="3">
-        <v>50400</v>
+        <v>65000</v>
       </c>
       <c r="I60" s="3">
-        <v>42000</v>
+        <v>52000</v>
       </c>
       <c r="J60" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>47100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>46200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>34000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3652,50 +3792,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="E61" s="3">
-        <v>30900</v>
+        <v>32200</v>
       </c>
       <c r="F61" s="3">
-        <v>30800</v>
+        <v>31900</v>
       </c>
       <c r="G61" s="3">
-        <v>33000</v>
+        <v>31800</v>
       </c>
       <c r="H61" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="I61" s="3">
-        <v>40200</v>
+        <v>37600</v>
       </c>
       <c r="J61" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K61" s="3">
         <v>55800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>23100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>24300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>111900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>136700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3729,35 +3875,35 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
-        <v>3000</v>
-      </c>
       <c r="I62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K62" s="3">
         <v>9000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1900</v>
       </c>
       <c r="N62" s="3">
         <v>1900</v>
       </c>
       <c r="O62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P62" s="3">
         <v>141200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,50 +4117,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100300</v>
+        <v>95700</v>
       </c>
       <c r="E66" s="3">
-        <v>100900</v>
+        <v>103500</v>
       </c>
       <c r="F66" s="3">
-        <v>102100</v>
+        <v>104200</v>
       </c>
       <c r="G66" s="3">
-        <v>91200</v>
+        <v>105400</v>
       </c>
       <c r="H66" s="3">
-        <v>93400</v>
+        <v>94100</v>
       </c>
       <c r="I66" s="3">
-        <v>90100</v>
+        <v>96400</v>
       </c>
       <c r="J66" s="3">
+        <v>92900</v>
+      </c>
+      <c r="K66" s="3">
         <v>135800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>77600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>78100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>73600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>154700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>183000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4024,8 +4182,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,50 +4467,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-148200</v>
+        <v>-152900</v>
       </c>
       <c r="E72" s="3">
-        <v>-148200</v>
+        <v>-152900</v>
       </c>
       <c r="F72" s="3">
-        <v>-148200</v>
+        <v>-152900</v>
       </c>
       <c r="G72" s="3">
-        <v>-66500</v>
+        <v>-152900</v>
       </c>
       <c r="H72" s="3">
-        <v>-66500</v>
+        <v>-68600</v>
       </c>
       <c r="I72" s="3">
-        <v>-66500</v>
+        <v>-68600</v>
       </c>
       <c r="J72" s="3">
+        <v>-68600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-55700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-56400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-28200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,50 +4727,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-21000</v>
+        <v>-13500</v>
       </c>
       <c r="E76" s="3">
-        <v>-21300</v>
+        <v>-21700</v>
       </c>
       <c r="F76" s="3">
-        <v>-21800</v>
+        <v>-22000</v>
       </c>
       <c r="G76" s="3">
-        <v>2500</v>
+        <v>-22500</v>
       </c>
       <c r="H76" s="3">
-        <v>43900</v>
+        <v>2600</v>
       </c>
       <c r="I76" s="3">
-        <v>54400</v>
+        <v>45300</v>
       </c>
       <c r="J76" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K76" s="3">
         <v>63000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-30300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4606,8 +4792,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
       <c r="F81" s="3">
-        <v>-81700</v>
+        <v>-500</v>
       </c>
       <c r="G81" s="3">
-        <v>-42700</v>
+        <v>-84300</v>
       </c>
       <c r="H81" s="3">
-        <v>-12100</v>
+        <v>-44100</v>
       </c>
       <c r="I81" s="3">
-        <v>-10800</v>
+        <v>-12500</v>
       </c>
       <c r="J81" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>17800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3">
         <v>-39400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3">
         <v>2300</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="E8" s="3">
-        <v>25500</v>
+        <v>23700</v>
       </c>
       <c r="F8" s="3">
-        <v>23100</v>
+        <v>25300</v>
       </c>
       <c r="G8" s="3">
-        <v>92700</v>
+        <v>22800</v>
       </c>
       <c r="H8" s="3">
+        <v>91800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>52100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>39200</v>
+      </c>
+      <c r="M8" s="3">
         <v>24600</v>
       </c>
-      <c r="I8" s="3">
-        <v>19400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>52100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>39200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>24600</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>36600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>58900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>56400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>50500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>23900</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="E9" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>53500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>14100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>8300</v>
+      </c>
+      <c r="O9" s="3">
         <v>11200</v>
       </c>
-      <c r="F9" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>54000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>18300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>14100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>7900</v>
+      </c>
+      <c r="R9" s="3">
+        <v>9100</v>
+      </c>
+      <c r="S9" s="3">
         <v>8300</v>
       </c>
-      <c r="N9" s="3">
-        <v>11200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>11300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>7900</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>9100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>8300</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>9000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12400</v>
+        <v>11400</v>
       </c>
       <c r="E10" s="3">
-        <v>14300</v>
+        <v>12300</v>
       </c>
       <c r="F10" s="3">
-        <v>12800</v>
+        <v>14200</v>
       </c>
       <c r="G10" s="3">
-        <v>38700</v>
+        <v>12700</v>
       </c>
       <c r="H10" s="3">
-        <v>11600</v>
+        <v>38300</v>
       </c>
       <c r="I10" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J10" s="3">
         <v>6700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>14000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>23900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>25300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>17700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>15000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45100</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
-        <v>64700</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+        <v>44600</v>
+      </c>
+      <c r="I14" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>10300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>9200</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>7600</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,64 +1285,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26900</v>
+        <v>25100</v>
       </c>
       <c r="E17" s="3">
-        <v>24600</v>
+        <v>26700</v>
       </c>
       <c r="F17" s="3">
-        <v>22400</v>
+        <v>24300</v>
       </c>
       <c r="G17" s="3">
-        <v>187000</v>
+        <v>22200</v>
       </c>
       <c r="H17" s="3">
-        <v>78000</v>
+        <v>185000</v>
       </c>
       <c r="I17" s="3">
-        <v>32200</v>
+        <v>77200</v>
       </c>
       <c r="J17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K17" s="3">
         <v>60700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>35500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
         <v>-1300</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1325,73 +1351,79 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-94200</v>
-      </c>
       <c r="H18" s="3">
-        <v>-53400</v>
+        <v>-93300</v>
       </c>
       <c r="I18" s="3">
-        <v>-12800</v>
+        <v>-52900</v>
       </c>
       <c r="J18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-8600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>57800</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>50500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-1300</v>
-      </c>
       <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>-62300</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>-38900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1515,61 +1551,64 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-6000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>50300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>13000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1586,162 +1625,171 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>28700</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>74700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8300</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-97900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-54100</v>
+        <v>-96800</v>
       </c>
       <c r="I23" s="3">
-        <v>-13500</v>
+        <v>-53500</v>
       </c>
       <c r="J23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>19000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>22300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-79300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-38400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-96200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-54200</v>
+        <v>-95200</v>
       </c>
       <c r="I26" s="3">
-        <v>-13700</v>
+        <v>-53600</v>
       </c>
       <c r="J26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>18300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12300</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
         <v>-39400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3">
         <v>2300</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7400</v>
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-84300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-44100</v>
+        <v>-83400</v>
       </c>
       <c r="I27" s="3">
-        <v>-12500</v>
+        <v>-43600</v>
       </c>
       <c r="J27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
         <v>-39400</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3">
         <v>2300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
-        <v>1300</v>
-      </c>
       <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>600</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
-        <v>700</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>62300</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>38900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7400</v>
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-84300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-44100</v>
+        <v>-83400</v>
       </c>
       <c r="I33" s="3">
-        <v>-12500</v>
+        <v>-43600</v>
       </c>
       <c r="J33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
         <v>-39400</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3">
         <v>2300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7400</v>
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-84300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-44100</v>
+        <v>-83400</v>
       </c>
       <c r="I35" s="3">
-        <v>-12500</v>
+        <v>-43600</v>
       </c>
       <c r="J35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
         <v>-39400</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3">
         <v>2300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
-        <v>3800</v>
-      </c>
       <c r="F41" s="3">
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="G41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
-        <v>6800</v>
-      </c>
       <c r="I41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>36400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,8 +2726,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,53 +2794,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6600</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
-        <v>5400</v>
-      </c>
       <c r="G43" s="3">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="H43" s="3">
-        <v>10400</v>
+        <v>6200</v>
       </c>
       <c r="I43" s="3">
-        <v>13500</v>
+        <v>10300</v>
       </c>
       <c r="J43" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K43" s="3">
         <v>17200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2770,53 +2862,56 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F44" s="3">
         <v>4100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
-        <v>4400</v>
-      </c>
       <c r="H44" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="I44" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J44" s="3">
         <v>4800</v>
       </c>
       <c r="K44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L44" s="3">
         <v>5100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>37600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,13 +2930,16 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2853,37 +2951,37 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1300</v>
       </c>
       <c r="J45" s="3">
         <v>1300</v>
       </c>
       <c r="K45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2900,53 +2998,56 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14300</v>
+        <v>11000</v>
       </c>
       <c r="E46" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="F46" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="G46" s="3">
-        <v>16300</v>
+        <v>13700</v>
       </c>
       <c r="H46" s="3">
-        <v>22400</v>
+        <v>16200</v>
       </c>
       <c r="I46" s="3">
-        <v>21900</v>
+        <v>22200</v>
       </c>
       <c r="J46" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K46" s="3">
         <v>29600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>39000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,28 +3066,31 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>800</v>
       </c>
       <c r="F47" s="3">
         <v>800</v>
       </c>
       <c r="G47" s="3">
+        <v>800</v>
+      </c>
+      <c r="H47" s="3">
         <v>700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1200</v>
       </c>
       <c r="J47" s="3">
         <v>1200</v>
@@ -2998,20 +3102,20 @@
         <v>1200</v>
       </c>
       <c r="M47" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="N47" s="3">
         <v>1500</v>
       </c>
       <c r="O47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,53 +3134,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51900</v>
+        <v>48900</v>
       </c>
       <c r="E48" s="3">
-        <v>52000</v>
+        <v>51300</v>
       </c>
       <c r="F48" s="3">
-        <v>53600</v>
+        <v>51400</v>
       </c>
       <c r="G48" s="3">
-        <v>51500</v>
+        <v>53000</v>
       </c>
       <c r="H48" s="3">
-        <v>56700</v>
+        <v>51000</v>
       </c>
       <c r="I48" s="3">
-        <v>78100</v>
+        <v>56100</v>
       </c>
       <c r="J48" s="3">
+        <v>77300</v>
+      </c>
+      <c r="K48" s="3">
         <v>76400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>100300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>73700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>76500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>78800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>81900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>170600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,53 +3202,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F49" s="3">
         <v>5500</v>
       </c>
       <c r="G49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H49" s="3">
         <v>5300</v>
       </c>
-      <c r="H49" s="3">
-        <v>8700</v>
-      </c>
       <c r="I49" s="3">
-        <v>31300</v>
+        <v>8600</v>
       </c>
       <c r="J49" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K49" s="3">
         <v>29900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>25800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>95600</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3160,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,53 +3406,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9600</v>
+        <v>12300</v>
       </c>
       <c r="E52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K52" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>14200</v>
+      </c>
+      <c r="O52" s="3">
         <v>9100</v>
       </c>
-      <c r="F52" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>12000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>12800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>15200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>14200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>9100</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>36500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82200</v>
+        <v>77700</v>
       </c>
       <c r="E54" s="3">
-        <v>81800</v>
+        <v>81300</v>
       </c>
       <c r="F54" s="3">
-        <v>82100</v>
+        <v>80900</v>
       </c>
       <c r="G54" s="3">
-        <v>82900</v>
+        <v>81300</v>
       </c>
       <c r="H54" s="3">
-        <v>96700</v>
+        <v>82000</v>
       </c>
       <c r="I54" s="3">
-        <v>141600</v>
+        <v>95700</v>
       </c>
       <c r="J54" s="3">
+        <v>140200</v>
+      </c>
+      <c r="K54" s="3">
         <v>149100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>198800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>154300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>145100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3485,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,52 +3664,53 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="E57" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="F57" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2800</v>
       </c>
       <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
+      <c r="Q57" s="3">
+        <v>2800</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
@@ -3600,53 +3730,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30100</v>
+        <v>37600</v>
       </c>
       <c r="E58" s="3">
-        <v>28200</v>
+        <v>29800</v>
       </c>
       <c r="F58" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="G58" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="H58" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="I58" s="3">
-        <v>21100</v>
+        <v>26600</v>
       </c>
       <c r="J58" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K58" s="3">
         <v>24700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>31300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>65000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,53 +3798,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>31700</v>
+        <v>33000</v>
       </c>
       <c r="E59" s="3">
-        <v>41000</v>
+        <v>31400</v>
       </c>
       <c r="F59" s="3">
-        <v>43700</v>
+        <v>40600</v>
       </c>
       <c r="G59" s="3">
-        <v>46800</v>
+        <v>43300</v>
       </c>
       <c r="H59" s="3">
-        <v>32700</v>
+        <v>46300</v>
       </c>
       <c r="I59" s="3">
-        <v>25000</v>
+        <v>32400</v>
       </c>
       <c r="J59" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K59" s="3">
         <v>13800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>27500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>470700</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3730,53 +3866,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68700</v>
+        <v>77300</v>
       </c>
       <c r="E60" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>74800</v>
+      </c>
+      <c r="G60" s="3">
         <v>75600</v>
       </c>
-      <c r="F60" s="3">
-        <v>76400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>77800</v>
-      </c>
       <c r="H60" s="3">
-        <v>65000</v>
+        <v>77000</v>
       </c>
       <c r="I60" s="3">
-        <v>52000</v>
+        <v>64300</v>
       </c>
       <c r="J60" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K60" s="3">
         <v>43300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>47100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>46200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>34000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>37600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3795,53 +3934,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31400</v>
+        <v>18300</v>
       </c>
       <c r="E61" s="3">
-        <v>32200</v>
+        <v>31100</v>
       </c>
       <c r="F61" s="3">
-        <v>31900</v>
+        <v>31800</v>
       </c>
       <c r="G61" s="3">
-        <v>31800</v>
+        <v>31600</v>
       </c>
       <c r="H61" s="3">
-        <v>34000</v>
+        <v>31500</v>
       </c>
       <c r="I61" s="3">
-        <v>37600</v>
+        <v>33700</v>
       </c>
       <c r="J61" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K61" s="3">
         <v>41500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>55800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>23100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>24300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>111900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>136700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3860,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3878,35 +4023,35 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>3100</v>
       </c>
       <c r="K62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L62" s="3">
         <v>9000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1900</v>
       </c>
       <c r="O62" s="3">
         <v>1900</v>
       </c>
       <c r="P62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>141200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95700</v>
+        <v>93800</v>
       </c>
       <c r="E66" s="3">
-        <v>103500</v>
+        <v>94700</v>
       </c>
       <c r="F66" s="3">
-        <v>104200</v>
+        <v>102400</v>
       </c>
       <c r="G66" s="3">
-        <v>105400</v>
+        <v>103100</v>
       </c>
       <c r="H66" s="3">
-        <v>94100</v>
+        <v>104300</v>
       </c>
       <c r="I66" s="3">
-        <v>96400</v>
+        <v>93100</v>
       </c>
       <c r="J66" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K66" s="3">
         <v>92900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>135800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>77600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>78100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>73600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>154700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>183000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4185,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-152900</v>
+        <v>-162200</v>
       </c>
       <c r="E72" s="3">
-        <v>-152900</v>
+        <v>-151300</v>
       </c>
       <c r="F72" s="3">
-        <v>-152900</v>
+        <v>-151300</v>
       </c>
       <c r="G72" s="3">
-        <v>-152900</v>
+        <v>-151300</v>
       </c>
       <c r="H72" s="3">
+        <v>-151300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-68600</v>
       </c>
-      <c r="I72" s="3">
-        <v>-68600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-68600</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-56400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-28200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-13500</v>
+        <v>-16200</v>
       </c>
       <c r="E76" s="3">
-        <v>-21700</v>
+        <v>-13400</v>
       </c>
       <c r="F76" s="3">
-        <v>-22000</v>
+        <v>-21500</v>
       </c>
       <c r="G76" s="3">
-        <v>-22500</v>
+        <v>-21800</v>
       </c>
       <c r="H76" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
-        <v>45300</v>
-      </c>
       <c r="J76" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K76" s="3">
         <v>56100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7400</v>
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-84300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-44100</v>
+        <v>-83400</v>
       </c>
       <c r="I81" s="3">
-        <v>-12500</v>
+        <v>-43600</v>
       </c>
       <c r="J81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3">
         <v>-39400</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3">
         <v>2300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5475,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6110,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>23400</v>
+        <v>20500</v>
       </c>
       <c r="E8" s="3">
-        <v>23700</v>
+        <v>22700</v>
       </c>
       <c r="F8" s="3">
-        <v>25300</v>
+        <v>23000</v>
       </c>
       <c r="G8" s="3">
-        <v>22800</v>
+        <v>24500</v>
       </c>
       <c r="H8" s="3">
-        <v>91800</v>
+        <v>22100</v>
       </c>
       <c r="I8" s="3">
-        <v>24300</v>
+        <v>89000</v>
       </c>
       <c r="J8" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K8" s="3">
         <v>19200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>52100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>58900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>56400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>50500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>23900</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="E9" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="F9" s="3">
         <v>11100</v>
       </c>
       <c r="G9" s="3">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="H9" s="3">
-        <v>53500</v>
+        <v>9900</v>
       </c>
       <c r="I9" s="3">
-        <v>12800</v>
+        <v>51800</v>
       </c>
       <c r="J9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K9" s="3">
         <v>12600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>8200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>9000</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11400</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H10" s="3">
         <v>12300</v>
       </c>
-      <c r="F10" s="3">
-        <v>14200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>38300</v>
-      </c>
       <c r="I10" s="3">
-        <v>11500</v>
+        <v>37100</v>
       </c>
       <c r="J10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>14000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>25300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>48100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>17700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>15000</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,76 +1144,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>44600</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>64100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+        <v>43300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
         <v>10300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3">
         <v>9200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
         <v>7600</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,67 +1312,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>25100</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>26700</v>
+        <v>24300</v>
       </c>
       <c r="F17" s="3">
-        <v>24300</v>
+        <v>25800</v>
       </c>
       <c r="G17" s="3">
-        <v>22200</v>
+        <v>23600</v>
       </c>
       <c r="H17" s="3">
-        <v>185000</v>
+        <v>21500</v>
       </c>
       <c r="I17" s="3">
-        <v>77200</v>
+        <v>179300</v>
       </c>
       <c r="J17" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K17" s="3">
         <v>31900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>60700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>42100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>35500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
         <v>-1300</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1354,76 +1381,82 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-2900</v>
-      </c>
       <c r="F18" s="3">
-        <v>1000</v>
+        <v>-2800</v>
       </c>
       <c r="G18" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H18" s="3">
-        <v>-93300</v>
+        <v>600</v>
       </c>
       <c r="I18" s="3">
-        <v>-52900</v>
+        <v>-90400</v>
       </c>
       <c r="J18" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>57800</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
         <v>50500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F20" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>-3600</v>
-      </c>
       <c r="I20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>-62300</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
         <v>-38900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,38 +1591,41 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-6000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>50300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>13000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1650,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1628,168 +1668,177 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>28700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
         <v>74700</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4600</v>
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
-        <v>-8200</v>
+        <v>-4400</v>
       </c>
       <c r="F23" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
       <c r="H23" s="3">
-        <v>-96800</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-53500</v>
+        <v>-93900</v>
       </c>
       <c r="J23" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>19000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>22300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-79300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-38400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-2800</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-7500</v>
+        <v>-2700</v>
       </c>
       <c r="F26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-95200</v>
-      </c>
       <c r="I26" s="3">
-        <v>-53600</v>
+        <v>-92200</v>
       </c>
       <c r="J26" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>-39400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3">
         <v>2300</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-2900</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-7300</v>
+        <v>-2800</v>
       </c>
       <c r="F27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-500</v>
-      </c>
       <c r="H27" s="3">
-        <v>-83400</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
-        <v>-43600</v>
+        <v>-80800</v>
       </c>
       <c r="J27" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
         <v>-39400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3">
         <v>2300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>2800</v>
       </c>
-      <c r="E32" s="3">
-        <v>5300</v>
-      </c>
       <c r="F32" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>3600</v>
-      </c>
       <c r="I32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>62300</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
         <v>38900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-2900</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-7300</v>
+        <v>-2800</v>
       </c>
       <c r="F33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-500</v>
-      </c>
       <c r="H33" s="3">
-        <v>-83400</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
-        <v>-43600</v>
+        <v>-80800</v>
       </c>
       <c r="J33" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3">
         <v>-39400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3">
         <v>2300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-2900</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-7300</v>
+        <v>-2800</v>
       </c>
       <c r="F35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-500</v>
-      </c>
       <c r="H35" s="3">
-        <v>-83400</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
-        <v>-43600</v>
+        <v>-80800</v>
       </c>
       <c r="J35" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
         <v>-39400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3">
         <v>2300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2747,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
-        <v>2900</v>
-      </c>
       <c r="F41" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="G41" s="3">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="H41" s="3">
-        <v>5600</v>
+        <v>4300</v>
       </c>
       <c r="I41" s="3">
-        <v>6700</v>
+        <v>5400</v>
       </c>
       <c r="J41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,56 +2887,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>6500</v>
+        <v>4800</v>
       </c>
       <c r="F43" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G43" s="3">
-        <v>5300</v>
+        <v>6200</v>
       </c>
       <c r="H43" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="I43" s="3">
-        <v>10300</v>
+        <v>6000</v>
       </c>
       <c r="J43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K43" s="3">
         <v>13400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2865,56 +2958,59 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E44" s="3">
-        <v>4700</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3">
-        <v>4100</v>
+        <v>4600</v>
       </c>
       <c r="G44" s="3">
         <v>4000</v>
       </c>
       <c r="H44" s="3">
-        <v>4300</v>
+        <v>3800</v>
       </c>
       <c r="I44" s="3">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="J44" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K44" s="3">
         <v>4800</v>
       </c>
       <c r="L44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M44" s="3">
         <v>5100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>37600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,17 +3029,20 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2954,37 +3053,37 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1300</v>
       </c>
       <c r="K45" s="3">
         <v>1300</v>
       </c>
       <c r="L45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3001,56 +3100,59 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11000</v>
+        <v>13300</v>
       </c>
       <c r="E46" s="3">
-        <v>14200</v>
+        <v>10700</v>
       </c>
       <c r="F46" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="G46" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="H46" s="3">
-        <v>16200</v>
+        <v>13300</v>
       </c>
       <c r="I46" s="3">
-        <v>22200</v>
+        <v>15700</v>
       </c>
       <c r="J46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K46" s="3">
         <v>21700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>39000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3069,31 +3171,34 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>800</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
       </c>
       <c r="H47" s="3">
+        <v>800</v>
+      </c>
+      <c r="I47" s="3">
         <v>700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1200</v>
       </c>
       <c r="K47" s="3">
         <v>1200</v>
@@ -3105,20 +3210,20 @@
         <v>1200</v>
       </c>
       <c r="N47" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="O47" s="3">
         <v>1500</v>
       </c>
       <c r="P47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>1600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3137,56 +3242,59 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48900</v>
+        <v>51400</v>
       </c>
       <c r="E48" s="3">
-        <v>51300</v>
+        <v>47400</v>
       </c>
       <c r="F48" s="3">
+        <v>49800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>49900</v>
+      </c>
+      <c r="H48" s="3">
         <v>51400</v>
       </c>
-      <c r="G48" s="3">
-        <v>53000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>51000</v>
-      </c>
       <c r="I48" s="3">
-        <v>56100</v>
+        <v>49400</v>
       </c>
       <c r="J48" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K48" s="3">
         <v>77300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>76400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>100300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>73700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>76500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>78800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>81900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>170600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,10 +3325,10 @@
         <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>5500</v>
+        <v>5100</v>
       </c>
       <c r="F49" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G49" s="3">
         <v>5400</v>
@@ -3226,35 +3337,35 @@
         <v>5300</v>
       </c>
       <c r="I49" s="3">
-        <v>8600</v>
+        <v>5100</v>
       </c>
       <c r="J49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K49" s="3">
         <v>30900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>95600</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,56 +3526,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12300</v>
+        <v>8000</v>
       </c>
       <c r="E52" s="3">
-        <v>9500</v>
+        <v>11900</v>
       </c>
       <c r="F52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K52" s="3">
         <v>9000</v>
       </c>
-      <c r="G52" s="3">
-        <v>8300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3668,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77700</v>
+        <v>78800</v>
       </c>
       <c r="E54" s="3">
-        <v>81300</v>
+        <v>75300</v>
       </c>
       <c r="F54" s="3">
-        <v>80900</v>
+        <v>78800</v>
       </c>
       <c r="G54" s="3">
-        <v>81300</v>
+        <v>78500</v>
       </c>
       <c r="H54" s="3">
-        <v>82000</v>
+        <v>78800</v>
       </c>
       <c r="I54" s="3">
-        <v>95700</v>
+        <v>79500</v>
       </c>
       <c r="J54" s="3">
+        <v>92800</v>
+      </c>
+      <c r="K54" s="3">
         <v>140200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>198800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>143900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>154300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,55 +3795,56 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F57" s="3">
         <v>6600</v>
       </c>
-      <c r="E57" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6300</v>
-      </c>
       <c r="G57" s="3">
-        <v>5200</v>
+        <v>6100</v>
       </c>
       <c r="H57" s="3">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="I57" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="J57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2800</v>
       </c>
       <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
+      <c r="R57" s="3">
+        <v>2800</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
@@ -3733,56 +3864,59 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37600</v>
+        <v>26300</v>
       </c>
       <c r="E58" s="3">
-        <v>29800</v>
+        <v>36500</v>
       </c>
       <c r="F58" s="3">
-        <v>27900</v>
+        <v>28900</v>
       </c>
       <c r="G58" s="3">
         <v>27100</v>
       </c>
       <c r="H58" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="I58" s="3">
-        <v>26600</v>
+        <v>25400</v>
       </c>
       <c r="J58" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K58" s="3">
         <v>20900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>31300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>65000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3801,56 +3935,59 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33000</v>
+        <v>41900</v>
       </c>
       <c r="E59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>30400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>39300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>41900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44900</v>
+      </c>
+      <c r="J59" s="3">
         <v>31400</v>
       </c>
-      <c r="F59" s="3">
-        <v>40600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>43300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>46300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>32400</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>27500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>470700</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,56 +4006,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>77300</v>
+        <v>73300</v>
       </c>
       <c r="E60" s="3">
-        <v>68000</v>
+        <v>74900</v>
       </c>
       <c r="F60" s="3">
-        <v>74800</v>
+        <v>65900</v>
       </c>
       <c r="G60" s="3">
-        <v>75600</v>
+        <v>72500</v>
       </c>
       <c r="H60" s="3">
-        <v>77000</v>
+        <v>73300</v>
       </c>
       <c r="I60" s="3">
-        <v>64300</v>
+        <v>74600</v>
       </c>
       <c r="J60" s="3">
+        <v>62300</v>
+      </c>
+      <c r="K60" s="3">
         <v>51400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>43300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>47100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>34000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>37600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,56 +4077,59 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18300</v>
+        <v>30600</v>
       </c>
       <c r="E61" s="3">
-        <v>31100</v>
+        <v>17700</v>
       </c>
       <c r="F61" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="G61" s="3">
-        <v>31600</v>
+        <v>30900</v>
       </c>
       <c r="H61" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="I61" s="3">
-        <v>33700</v>
+        <v>30500</v>
       </c>
       <c r="J61" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K61" s="3">
         <v>37200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>55800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>23100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>24300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>111900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>136700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4026,35 +4172,35 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
       </c>
       <c r="L62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M62" s="3">
         <v>9000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1900</v>
       </c>
       <c r="P62" s="3">
         <v>1900</v>
       </c>
       <c r="Q62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R62" s="3">
         <v>141200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4432,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93800</v>
+        <v>99900</v>
       </c>
       <c r="E66" s="3">
-        <v>94700</v>
+        <v>90900</v>
       </c>
       <c r="F66" s="3">
-        <v>102400</v>
+        <v>91800</v>
       </c>
       <c r="G66" s="3">
-        <v>103100</v>
+        <v>99300</v>
       </c>
       <c r="H66" s="3">
-        <v>104300</v>
+        <v>99900</v>
       </c>
       <c r="I66" s="3">
-        <v>93100</v>
+        <v>101100</v>
       </c>
       <c r="J66" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K66" s="3">
         <v>95400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>135800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>77600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>78100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>73600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>154700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>183000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4814,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-162200</v>
+        <v>-146700</v>
       </c>
       <c r="E72" s="3">
-        <v>-151300</v>
+        <v>-157200</v>
       </c>
       <c r="F72" s="3">
-        <v>-151300</v>
+        <v>-146700</v>
       </c>
       <c r="G72" s="3">
-        <v>-151300</v>
+        <v>-146700</v>
       </c>
       <c r="H72" s="3">
-        <v>-151300</v>
+        <v>-146700</v>
       </c>
       <c r="I72" s="3">
+        <v>-146700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-67900</v>
       </c>
-      <c r="J72" s="3">
-        <v>-67900</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-56400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46400</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5098,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-16200</v>
+        <v>-21100</v>
       </c>
       <c r="E76" s="3">
-        <v>-13400</v>
+        <v>-15700</v>
       </c>
       <c r="F76" s="3">
-        <v>-21500</v>
+        <v>-13000</v>
       </c>
       <c r="G76" s="3">
-        <v>-21800</v>
+        <v>-20800</v>
       </c>
       <c r="H76" s="3">
-        <v>-22300</v>
+        <v>-21100</v>
       </c>
       <c r="I76" s="3">
-        <v>2600</v>
+        <v>-21600</v>
       </c>
       <c r="J76" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K76" s="3">
         <v>44800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>66300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-30300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-2900</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-7300</v>
+        <v>-2800</v>
       </c>
       <c r="F81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-500</v>
-      </c>
       <c r="H81" s="3">
-        <v>-83400</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
-        <v>-43600</v>
+        <v>-80800</v>
       </c>
       <c r="J81" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3">
         <v>-39400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3">
         <v>2300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>AIH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="E8" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F8" s="3">
         <v>22700</v>
       </c>
-      <c r="F8" s="3">
-        <v>23000</v>
-      </c>
       <c r="G8" s="3">
-        <v>24500</v>
+        <v>23100</v>
       </c>
       <c r="H8" s="3">
-        <v>22100</v>
+        <v>24600</v>
       </c>
       <c r="I8" s="3">
-        <v>89000</v>
+        <v>22200</v>
       </c>
       <c r="J8" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K8" s="3">
         <v>23600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>52100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>58900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>56400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>27800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>50500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>23900</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9900</v>
       </c>
-      <c r="I9" s="3">
-        <v>51800</v>
-      </c>
       <c r="J9" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>10100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>8200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>9000</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E10" s="3">
         <v>10000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11900</v>
       </c>
-      <c r="G10" s="3">
-        <v>13700</v>
-      </c>
       <c r="H10" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I10" s="3">
         <v>12300</v>
       </c>
-      <c r="I10" s="3">
-        <v>37100</v>
-      </c>
       <c r="J10" s="3">
+        <v>37200</v>
+      </c>
+      <c r="K10" s="3">
         <v>11100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>25000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>14000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>25300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>18500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>48100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>17700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>15000</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,79 +1164,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>43300</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K14" s="3">
         <v>62100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
         <v>10300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
         <v>9200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" s="3">
         <v>7600</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,70 +1339,71 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>25400</v>
       </c>
       <c r="E17" s="3">
-        <v>24300</v>
+        <v>19800</v>
       </c>
       <c r="F17" s="3">
-        <v>25800</v>
+        <v>24400</v>
       </c>
       <c r="G17" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H17" s="3">
         <v>23600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21500</v>
       </c>
-      <c r="I17" s="3">
-        <v>179300</v>
-      </c>
       <c r="J17" s="3">
+        <v>179700</v>
+      </c>
+      <c r="K17" s="3">
         <v>74800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>60700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>42100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>35500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3">
         <v>-1300</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
@@ -1384,79 +1411,85 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-90400</v>
-      </c>
       <c r="J18" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-51200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>57800</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
         <v>50500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-600</v>
       </c>
       <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8800</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>-62300</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>-38900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1594,38 +1631,41 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>50300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>13000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,8 +1693,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1671,174 +1711,183 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
         <v>28700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>74700</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-93900</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-51900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>19000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>22300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-79300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-38400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-7200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-92200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-52000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-12200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>18300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3">
         <v>-39400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3">
         <v>2300</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1500</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-80800</v>
-      </c>
       <c r="J27" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-42300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>17800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3">
         <v>-39400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="3">
         <v>2300</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>600</v>
       </c>
       <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>2800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8800</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>62300</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>38900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-1500</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-80800</v>
-      </c>
       <c r="J33" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-42300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>17800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3">
         <v>-39400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="3">
         <v>2300</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-1500</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-80800</v>
-      </c>
       <c r="J35" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-42300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>17800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3">
         <v>-39400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3">
         <v>2300</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,59 +2834,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,59 +2980,62 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>6000</v>
-      </c>
       <c r="J43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,59 +3054,62 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>4800</v>
       </c>
       <c r="L44" s="3">
         <v>4800</v>
       </c>
       <c r="M44" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N44" s="3">
         <v>5100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>37600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,19 +3128,22 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3056,37 +3155,37 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1300</v>
       </c>
       <c r="L45" s="3">
         <v>1300</v>
       </c>
       <c r="M45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3103,59 +3202,62 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13300</v>
+        <v>21800</v>
       </c>
       <c r="E46" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
-      </c>
-      <c r="F46" s="3">
-        <v>13800</v>
       </c>
       <c r="G46" s="3">
         <v>13800</v>
       </c>
       <c r="H46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I46" s="3">
         <v>13300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30000</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3174,34 +3276,37 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>800</v>
       </c>
       <c r="H47" s="3">
         <v>800</v>
       </c>
       <c r="I47" s="3">
+        <v>800</v>
+      </c>
+      <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1200</v>
       </c>
       <c r="L47" s="3">
         <v>1200</v>
@@ -3213,20 +3318,20 @@
         <v>1200</v>
       </c>
       <c r="O47" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="P47" s="3">
         <v>1500</v>
       </c>
       <c r="Q47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,59 +3350,62 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>51400</v>
+        <v>45100</v>
       </c>
       <c r="E48" s="3">
-        <v>47400</v>
+        <v>46700</v>
       </c>
       <c r="F48" s="3">
-        <v>49800</v>
+        <v>47500</v>
       </c>
       <c r="G48" s="3">
         <v>49900</v>
       </c>
       <c r="H48" s="3">
-        <v>51400</v>
+        <v>50000</v>
       </c>
       <c r="I48" s="3">
-        <v>49400</v>
+        <v>51500</v>
       </c>
       <c r="J48" s="3">
+        <v>49500</v>
+      </c>
+      <c r="K48" s="3">
         <v>54400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>77300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>76400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>73700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>76500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>78800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>81900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>170600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,59 +3424,62 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="E49" s="3">
         <v>5100</v>
       </c>
       <c r="F49" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="G49" s="3">
         <v>5400</v>
       </c>
       <c r="H49" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I49" s="3">
         <v>5300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>55700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>95600</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,59 +3646,62 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8000</v>
+        <v>11200</v>
       </c>
       <c r="E52" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F52" s="3">
         <v>11900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
-        <v>8000</v>
-      </c>
       <c r="I52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J52" s="3">
         <v>8600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,59 +3794,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78800</v>
+        <v>83200</v>
       </c>
       <c r="E54" s="3">
-        <v>75300</v>
+        <v>89300</v>
       </c>
       <c r="F54" s="3">
-        <v>78800</v>
+        <v>75400</v>
       </c>
       <c r="G54" s="3">
-        <v>78500</v>
+        <v>79000</v>
       </c>
       <c r="H54" s="3">
-        <v>78800</v>
+        <v>78600</v>
       </c>
       <c r="I54" s="3">
-        <v>79500</v>
+        <v>79000</v>
       </c>
       <c r="J54" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K54" s="3">
         <v>92800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>198800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>143900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>154300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>145100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,49 +3936,49 @@
         <v>5000</v>
       </c>
       <c r="E57" s="3">
-        <v>6400</v>
+        <v>5900</v>
       </c>
       <c r="F57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G57" s="3">
         <v>6600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
-        <v>5000</v>
-      </c>
       <c r="I57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2800</v>
       </c>
       <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
+      <c r="S57" s="3">
+        <v>2800</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
@@ -3867,59 +3998,62 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26300</v>
+        <v>28200</v>
       </c>
       <c r="E58" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F58" s="3">
         <v>36500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>28900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27100</v>
       </c>
-      <c r="H58" s="3">
-        <v>26300</v>
-      </c>
       <c r="I58" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="J58" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K58" s="3">
         <v>25800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>28600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>31300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>65000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3938,59 +4072,62 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41900</v>
+        <v>29700</v>
       </c>
       <c r="E59" s="3">
-        <v>32000</v>
+        <v>30200</v>
       </c>
       <c r="F59" s="3">
-        <v>30400</v>
+        <v>32100</v>
       </c>
       <c r="G59" s="3">
-        <v>39300</v>
+        <v>30500</v>
       </c>
       <c r="H59" s="3">
-        <v>41900</v>
+        <v>39400</v>
       </c>
       <c r="I59" s="3">
-        <v>44900</v>
+        <v>42000</v>
       </c>
       <c r="J59" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K59" s="3">
         <v>31400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>27500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>470700</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4009,59 +4146,62 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>73300</v>
+        <v>62900</v>
       </c>
       <c r="E60" s="3">
-        <v>74900</v>
+        <v>68200</v>
       </c>
       <c r="F60" s="3">
-        <v>65900</v>
+        <v>75100</v>
       </c>
       <c r="G60" s="3">
-        <v>72500</v>
+        <v>66000</v>
       </c>
       <c r="H60" s="3">
-        <v>73300</v>
+        <v>72600</v>
       </c>
       <c r="I60" s="3">
-        <v>74600</v>
+        <v>73400</v>
       </c>
       <c r="J60" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K60" s="3">
         <v>62300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>51400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>43300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>47100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>34000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>37600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4080,59 +4220,62 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>30200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>30700</v>
+      </c>
+      <c r="J61" s="3">
         <v>30600</v>
       </c>
-      <c r="E61" s="3">
-        <v>17700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>30100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>30900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>30600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>30500</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>32600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>55800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>23100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>24300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>111900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>136700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4151,13 +4294,16 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4175,35 +4321,35 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3100</v>
       </c>
       <c r="L62" s="3">
         <v>3100</v>
       </c>
       <c r="M62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N62" s="3">
         <v>9000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1900</v>
       </c>
       <c r="Q62" s="3">
         <v>1900</v>
       </c>
       <c r="R62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S62" s="3">
         <v>141200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,59 +4590,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99900</v>
+        <v>76800</v>
       </c>
       <c r="E66" s="3">
-        <v>90900</v>
+        <v>81500</v>
       </c>
       <c r="F66" s="3">
-        <v>91800</v>
+        <v>91100</v>
       </c>
       <c r="G66" s="3">
-        <v>99300</v>
+        <v>92000</v>
       </c>
       <c r="H66" s="3">
-        <v>99900</v>
+        <v>99500</v>
       </c>
       <c r="I66" s="3">
-        <v>101100</v>
+        <v>100100</v>
       </c>
       <c r="J66" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K66" s="3">
         <v>90300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>135800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>77600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>78100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>73600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>154700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>183000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,59 +4988,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-146700</v>
+        <v>-158900</v>
       </c>
       <c r="E72" s="3">
-        <v>-157200</v>
+        <v>-157500</v>
       </c>
       <c r="F72" s="3">
-        <v>-146700</v>
+        <v>-157500</v>
       </c>
       <c r="G72" s="3">
-        <v>-146700</v>
+        <v>-147000</v>
       </c>
       <c r="H72" s="3">
-        <v>-146700</v>
+        <v>-147000</v>
       </c>
       <c r="I72" s="3">
-        <v>-146700</v>
+        <v>-147000</v>
       </c>
       <c r="J72" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-65800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-67900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-68600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-56400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-28200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,59 +5284,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-21100</v>
+        <v>6300</v>
       </c>
       <c r="E76" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13000</v>
       </c>
-      <c r="G76" s="3">
-        <v>-20800</v>
-      </c>
       <c r="H76" s="3">
-        <v>-21100</v>
+        <v>-20900</v>
       </c>
       <c r="I76" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-21600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>66300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-30300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-1500</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-80800</v>
-      </c>
       <c r="J81" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-42300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>17800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3">
         <v>-39400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" s="3">
         <v>2300</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
